--- a/data-migration/xlsx_1900-/1913_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1913_Sommer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_WEB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F3FC0D0-520A-4CA2-805C-C5809FB9C50D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9874E2D2-C18F-451D-BE44-D3F5171E8D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2909" uniqueCount="1264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2909" uniqueCount="1265">
   <si>
     <t>Sommer</t>
   </si>
@@ -3825,6 +3825,9 @@
   </si>
   <si>
     <t>sidlerhuguenin_e</t>
+  </si>
+  <si>
+    <t>Prof</t>
   </si>
 </sst>
 </file>
@@ -4168,21 +4171,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G136" workbookViewId="0">
-      <selection activeCell="H136" sqref="H1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="G142" workbookViewId="0">
+      <selection activeCell="K176" sqref="K176"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="42.88671875" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" customWidth="1"/>
     <col min="6" max="6" width="82" customWidth="1"/>
-    <col min="7" max="7" width="67.33203125" customWidth="1"/>
-    <col min="8" max="8" width="33.5546875" customWidth="1"/>
+    <col min="7" max="7" width="67.28515625" customWidth="1"/>
+    <col min="8" max="8" width="33.5703125" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1913</v>
       </c>
@@ -4211,7 +4214,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1913</v>
       </c>
@@ -4237,7 +4240,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1913</v>
       </c>
@@ -4263,7 +4266,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1913</v>
       </c>
@@ -4292,7 +4295,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1913</v>
       </c>
@@ -4318,7 +4321,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1913</v>
       </c>
@@ -4344,7 +4347,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1913</v>
       </c>
@@ -4370,7 +4373,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1913</v>
       </c>
@@ -4396,7 +4399,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1913</v>
       </c>
@@ -4422,7 +4425,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1913</v>
       </c>
@@ -4448,7 +4451,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1913</v>
       </c>
@@ -4474,7 +4477,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1913</v>
       </c>
@@ -4500,7 +4503,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1913</v>
       </c>
@@ -4526,7 +4529,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1913</v>
       </c>
@@ -4552,7 +4555,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1913</v>
       </c>
@@ -4578,7 +4581,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1913</v>
       </c>
@@ -4604,7 +4607,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1913</v>
       </c>
@@ -4630,7 +4633,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1913</v>
       </c>
@@ -4659,7 +4662,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1913</v>
       </c>
@@ -4685,7 +4688,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1913</v>
       </c>
@@ -4711,7 +4714,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1913</v>
       </c>
@@ -4737,7 +4740,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1913</v>
       </c>
@@ -4763,7 +4766,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1913</v>
       </c>
@@ -4789,7 +4792,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1913</v>
       </c>
@@ -4815,7 +4818,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1913</v>
       </c>
@@ -4841,7 +4844,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1913</v>
       </c>
@@ -4867,7 +4870,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1913</v>
       </c>
@@ -4893,7 +4896,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1913</v>
       </c>
@@ -4922,7 +4925,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1913</v>
       </c>
@@ -4948,7 +4951,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1913</v>
       </c>
@@ -4974,7 +4977,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1913</v>
       </c>
@@ -5000,7 +5003,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1913</v>
       </c>
@@ -5026,7 +5029,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1913</v>
       </c>
@@ -5052,7 +5055,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1913</v>
       </c>
@@ -5078,7 +5081,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1913</v>
       </c>
@@ -5104,7 +5107,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1913</v>
       </c>
@@ -5130,7 +5133,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1913</v>
       </c>
@@ -5156,7 +5159,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1913</v>
       </c>
@@ -5182,7 +5185,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1913</v>
       </c>
@@ -5208,7 +5211,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1913</v>
       </c>
@@ -5234,7 +5237,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1913</v>
       </c>
@@ -5260,7 +5263,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1913</v>
       </c>
@@ -5289,7 +5292,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1913</v>
       </c>
@@ -5315,7 +5318,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1913</v>
       </c>
@@ -5341,7 +5344,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1913</v>
       </c>
@@ -5367,7 +5370,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1913</v>
       </c>
@@ -5396,7 +5399,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1913</v>
       </c>
@@ -5422,7 +5425,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1913</v>
       </c>
@@ -5448,7 +5451,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1913</v>
       </c>
@@ -5474,7 +5477,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1913</v>
       </c>
@@ -5500,7 +5503,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1913</v>
       </c>
@@ -5526,7 +5529,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1913</v>
       </c>
@@ -5552,7 +5555,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1913</v>
       </c>
@@ -5578,7 +5581,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1913</v>
       </c>
@@ -5604,7 +5607,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1913</v>
       </c>
@@ -5630,7 +5633,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1913</v>
       </c>
@@ -5659,7 +5662,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1913</v>
       </c>
@@ -5685,7 +5688,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1913</v>
       </c>
@@ -5711,7 +5714,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1913</v>
       </c>
@@ -5737,7 +5740,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1913</v>
       </c>
@@ -5763,7 +5766,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1913</v>
       </c>
@@ -5789,7 +5792,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1913</v>
       </c>
@@ -5818,7 +5821,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1913</v>
       </c>
@@ -5847,7 +5850,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1913</v>
       </c>
@@ -5873,7 +5876,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1913</v>
       </c>
@@ -5899,7 +5902,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1913</v>
       </c>
@@ -5925,7 +5928,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1913</v>
       </c>
@@ -5951,7 +5954,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1913</v>
       </c>
@@ -5977,7 +5980,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1913</v>
       </c>
@@ -6003,7 +6006,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1913</v>
       </c>
@@ -6029,7 +6032,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1913</v>
       </c>
@@ -6055,7 +6058,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1913</v>
       </c>
@@ -6081,7 +6084,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1913</v>
       </c>
@@ -6107,7 +6110,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1913</v>
       </c>
@@ -6136,7 +6139,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1913</v>
       </c>
@@ -6162,7 +6165,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1913</v>
       </c>
@@ -6194,7 +6197,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1913</v>
       </c>
@@ -6226,7 +6229,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1913</v>
       </c>
@@ -6252,7 +6255,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1913</v>
       </c>
@@ -6281,7 +6284,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1913</v>
       </c>
@@ -6307,7 +6310,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1913</v>
       </c>
@@ -6333,7 +6336,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1913</v>
       </c>
@@ -6359,7 +6362,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1913</v>
       </c>
@@ -6385,7 +6388,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1913</v>
       </c>
@@ -6411,7 +6414,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1913</v>
       </c>
@@ -6437,7 +6440,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1913</v>
       </c>
@@ -6463,7 +6466,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1913</v>
       </c>
@@ -6489,7 +6492,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1913</v>
       </c>
@@ -6515,7 +6518,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1913</v>
       </c>
@@ -6541,7 +6544,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1913</v>
       </c>
@@ -6567,7 +6570,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1913</v>
       </c>
@@ -6593,7 +6596,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1913</v>
       </c>
@@ -6622,7 +6625,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1913</v>
       </c>
@@ -6651,7 +6654,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1913</v>
       </c>
@@ -6680,7 +6683,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1913</v>
       </c>
@@ -6709,7 +6712,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1913</v>
       </c>
@@ -6738,7 +6741,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1913</v>
       </c>
@@ -6764,7 +6767,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1913</v>
       </c>
@@ -6790,7 +6793,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1913</v>
       </c>
@@ -6816,7 +6819,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1913</v>
       </c>
@@ -6842,7 +6845,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1913</v>
       </c>
@@ -6868,7 +6871,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1913</v>
       </c>
@@ -6894,7 +6897,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1913</v>
       </c>
@@ -6920,7 +6923,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1913</v>
       </c>
@@ -6946,7 +6949,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1913</v>
       </c>
@@ -6972,7 +6975,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1913</v>
       </c>
@@ -6998,7 +7001,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1913</v>
       </c>
@@ -7024,7 +7027,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1913</v>
       </c>
@@ -7050,7 +7053,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1913</v>
       </c>
@@ -7076,7 +7079,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1913</v>
       </c>
@@ -7102,7 +7105,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1913</v>
       </c>
@@ -7128,7 +7131,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1913</v>
       </c>
@@ -7154,7 +7157,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1913</v>
       </c>
@@ -7180,7 +7183,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1913</v>
       </c>
@@ -7206,7 +7209,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1913</v>
       </c>
@@ -7232,7 +7235,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1913</v>
       </c>
@@ -7258,7 +7261,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1913</v>
       </c>
@@ -7284,7 +7287,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1913</v>
       </c>
@@ -7310,7 +7313,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1913</v>
       </c>
@@ -7336,7 +7339,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1913</v>
       </c>
@@ -7362,7 +7365,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1913</v>
       </c>
@@ -7388,7 +7391,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1913</v>
       </c>
@@ -7414,7 +7417,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1913</v>
       </c>
@@ -7440,7 +7443,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1913</v>
       </c>
@@ -7466,7 +7469,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1913</v>
       </c>
@@ -7492,7 +7495,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1913</v>
       </c>
@@ -7518,7 +7521,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1913</v>
       </c>
@@ -7544,7 +7547,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1913</v>
       </c>
@@ -7570,7 +7573,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1913</v>
       </c>
@@ -7596,7 +7599,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1913</v>
       </c>
@@ -7622,7 +7625,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1913</v>
       </c>
@@ -7648,7 +7651,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1913</v>
       </c>
@@ -7674,7 +7677,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1913</v>
       </c>
@@ -7700,7 +7703,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1913</v>
       </c>
@@ -7726,7 +7729,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1913</v>
       </c>
@@ -7752,7 +7755,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1913</v>
       </c>
@@ -7778,7 +7781,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1913</v>
       </c>
@@ -7804,7 +7807,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1913</v>
       </c>
@@ -7830,7 +7833,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1913</v>
       </c>
@@ -7856,7 +7859,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1913</v>
       </c>
@@ -7882,7 +7885,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1913</v>
       </c>
@@ -7908,7 +7911,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1913</v>
       </c>
@@ -7934,7 +7937,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1913</v>
       </c>
@@ -7960,7 +7963,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1913</v>
       </c>
@@ -7986,7 +7989,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1913</v>
       </c>
@@ -8012,7 +8015,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1913</v>
       </c>
@@ -8038,7 +8041,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1913</v>
       </c>
@@ -8064,7 +8067,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1913</v>
       </c>
@@ -8090,7 +8093,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1913</v>
       </c>
@@ -8116,7 +8119,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1913</v>
       </c>
@@ -8142,7 +8145,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1913</v>
       </c>
@@ -8168,7 +8171,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1913</v>
       </c>
@@ -8194,7 +8197,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1913</v>
       </c>
@@ -8220,7 +8223,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1913</v>
       </c>
@@ -8246,7 +8249,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1913</v>
       </c>
@@ -8272,7 +8275,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1913</v>
       </c>
@@ -8298,7 +8301,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1913</v>
       </c>
@@ -8324,7 +8327,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1913</v>
       </c>
@@ -8350,7 +8353,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1913</v>
       </c>
@@ -8376,7 +8379,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1913</v>
       </c>
@@ -8402,7 +8405,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1913</v>
       </c>
@@ -8428,7 +8431,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1913</v>
       </c>
@@ -8454,7 +8457,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1913</v>
       </c>
@@ -8480,7 +8483,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1913</v>
       </c>
@@ -8506,7 +8509,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1913</v>
       </c>
@@ -8532,7 +8535,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1913</v>
       </c>
@@ -8558,7 +8561,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1913</v>
       </c>
@@ -8584,7 +8587,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1913</v>
       </c>
@@ -8610,7 +8613,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1913</v>
       </c>
@@ -8636,7 +8639,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1913</v>
       </c>
@@ -8662,7 +8665,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1913</v>
       </c>
@@ -8685,10 +8688,10 @@
         <v>1148</v>
       </c>
       <c r="I171" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1913</v>
       </c>
@@ -8711,10 +8714,10 @@
         <v>1148</v>
       </c>
       <c r="I172" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1913</v>
       </c>
@@ -8737,10 +8740,10 @@
         <v>1149</v>
       </c>
       <c r="I173" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1913</v>
       </c>
@@ -8763,10 +8766,10 @@
         <v>1149</v>
       </c>
       <c r="I174" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1913</v>
       </c>
@@ -8789,10 +8792,10 @@
         <v>1149</v>
       </c>
       <c r="I175" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1913</v>
       </c>
@@ -8815,10 +8818,10 @@
         <v>1149</v>
       </c>
       <c r="I176" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1913</v>
       </c>
@@ -8841,10 +8844,10 @@
         <v>1230</v>
       </c>
       <c r="I177" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1913</v>
       </c>
@@ -8867,10 +8870,10 @@
         <v>1230</v>
       </c>
       <c r="I178" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1913</v>
       </c>
@@ -8899,7 +8902,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1913</v>
       </c>
@@ -8928,7 +8931,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1913</v>
       </c>
@@ -8957,7 +8960,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1913</v>
       </c>
@@ -8986,7 +8989,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1913</v>
       </c>
@@ -9015,7 +9018,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1913</v>
       </c>
@@ -9044,7 +9047,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1913</v>
       </c>
@@ -9073,7 +9076,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1913</v>
       </c>
@@ -9102,7 +9105,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1913</v>
       </c>
@@ -9128,7 +9131,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1913</v>
       </c>
@@ -9154,7 +9157,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1913</v>
       </c>
@@ -9180,7 +9183,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1913</v>
       </c>
@@ -9206,7 +9209,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1913</v>
       </c>
@@ -9232,7 +9235,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1913</v>
       </c>
@@ -9258,7 +9261,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1913</v>
       </c>
@@ -9284,7 +9287,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1913</v>
       </c>
@@ -9310,7 +9313,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1913</v>
       </c>
@@ -9336,7 +9339,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1913</v>
       </c>
@@ -9362,7 +9365,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1913</v>
       </c>
@@ -9388,7 +9391,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1913</v>
       </c>
@@ -9414,7 +9417,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1913</v>
       </c>
@@ -9440,7 +9443,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1913</v>
       </c>
@@ -9466,7 +9469,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1913</v>
       </c>
@@ -9492,7 +9495,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1913</v>
       </c>
@@ -9518,7 +9521,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1913</v>
       </c>
@@ -9544,7 +9547,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1913</v>
       </c>
@@ -9570,7 +9573,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1913</v>
       </c>
@@ -9596,7 +9599,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1913</v>
       </c>
@@ -9622,7 +9625,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1913</v>
       </c>
@@ -9648,7 +9651,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1913</v>
       </c>
@@ -9674,7 +9677,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1913</v>
       </c>
@@ -9700,7 +9703,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1913</v>
       </c>
@@ -9726,7 +9729,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1913</v>
       </c>
@@ -9752,7 +9755,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1913</v>
       </c>
@@ -9778,7 +9781,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1913</v>
       </c>
@@ -9804,7 +9807,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1913</v>
       </c>
@@ -9830,7 +9833,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1913</v>
       </c>
@@ -9856,7 +9859,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1913</v>
       </c>
@@ -9882,7 +9885,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1913</v>
       </c>
@@ -9908,7 +9911,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1913</v>
       </c>
@@ -9934,7 +9937,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1913</v>
       </c>
@@ -9960,7 +9963,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1913</v>
       </c>
@@ -9986,7 +9989,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1913</v>
       </c>
@@ -10012,7 +10015,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1913</v>
       </c>
@@ -10038,7 +10041,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1913</v>
       </c>
@@ -10064,7 +10067,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1913</v>
       </c>
@@ -10090,7 +10093,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1913</v>
       </c>
@@ -10116,7 +10119,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1913</v>
       </c>
@@ -10142,7 +10145,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1913</v>
       </c>
@@ -10168,7 +10171,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1913</v>
       </c>
@@ -10194,7 +10197,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1913</v>
       </c>
@@ -10220,7 +10223,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1913</v>
       </c>
@@ -10246,7 +10249,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1913</v>
       </c>
@@ -10272,7 +10275,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1913</v>
       </c>
@@ -10301,7 +10304,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1913</v>
       </c>
@@ -10327,7 +10330,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1913</v>
       </c>
@@ -10353,7 +10356,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1913</v>
       </c>
@@ -10382,7 +10385,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1913</v>
       </c>
@@ -10408,7 +10411,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1913</v>
       </c>
@@ -10434,7 +10437,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1913</v>
       </c>
@@ -10460,7 +10463,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1913</v>
       </c>
@@ -10486,7 +10489,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1913</v>
       </c>
@@ -10515,7 +10518,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1913</v>
       </c>
@@ -10541,7 +10544,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1913</v>
       </c>
@@ -10567,7 +10570,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1913</v>
       </c>
@@ -10593,7 +10596,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1913</v>
       </c>
@@ -10619,7 +10622,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1913</v>
       </c>
@@ -10645,7 +10648,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1913</v>
       </c>
@@ -10674,7 +10677,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1913</v>
       </c>
@@ -10700,7 +10703,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1913</v>
       </c>
@@ -10726,7 +10729,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1913</v>
       </c>
@@ -10752,7 +10755,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1913</v>
       </c>
@@ -10778,7 +10781,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1913</v>
       </c>
@@ -10804,7 +10807,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1913</v>
       </c>
@@ -10830,7 +10833,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1913</v>
       </c>
@@ -10856,7 +10859,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1913</v>
       </c>
@@ -10882,7 +10885,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1913</v>
       </c>
@@ -10908,7 +10911,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1913</v>
       </c>
@@ -10934,7 +10937,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1913</v>
       </c>
@@ -10960,7 +10963,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1913</v>
       </c>
@@ -10986,7 +10989,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1913</v>
       </c>
@@ -11012,7 +11015,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1913</v>
       </c>
@@ -11038,7 +11041,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1913</v>
       </c>
@@ -11064,7 +11067,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>1913</v>
       </c>
@@ -11090,7 +11093,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1913</v>
       </c>
@@ -11116,7 +11119,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>1913</v>
       </c>
@@ -11142,7 +11145,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>1913</v>
       </c>
@@ -11168,7 +11171,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1913</v>
       </c>
@@ -11194,7 +11197,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1913</v>
       </c>
@@ -11220,7 +11223,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1913</v>
       </c>
@@ -11246,7 +11249,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1913</v>
       </c>
@@ -11272,7 +11275,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1913</v>
       </c>
@@ -11301,7 +11304,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1913</v>
       </c>
@@ -11327,7 +11330,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1913</v>
       </c>
@@ -11353,7 +11356,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1913</v>
       </c>
@@ -11379,7 +11382,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>1913</v>
       </c>
@@ -11408,7 +11411,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>1913</v>
       </c>
@@ -11434,7 +11437,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1913</v>
       </c>
@@ -11460,7 +11463,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1913</v>
       </c>
@@ -11486,7 +11489,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1913</v>
       </c>
@@ -11512,7 +11515,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>1913</v>
       </c>
@@ -11538,7 +11541,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1913</v>
       </c>
@@ -11564,7 +11567,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1913</v>
       </c>
@@ -11590,7 +11593,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>1913</v>
       </c>
@@ -11616,7 +11619,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1913</v>
       </c>
@@ -11642,7 +11645,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1913</v>
       </c>
@@ -11668,7 +11671,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1913</v>
       </c>
@@ -11694,7 +11697,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1913</v>
       </c>
@@ -11720,7 +11723,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1913</v>
       </c>
@@ -11746,7 +11749,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1913</v>
       </c>
@@ -11772,7 +11775,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1913</v>
       </c>
@@ -11798,7 +11801,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1913</v>
       </c>
@@ -11824,7 +11827,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1913</v>
       </c>
@@ -11850,7 +11853,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1913</v>
       </c>
@@ -11876,7 +11879,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1913</v>
       </c>
@@ -11902,7 +11905,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1913</v>
       </c>
@@ -11928,7 +11931,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1913</v>
       </c>
@@ -11954,7 +11957,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1913</v>
       </c>
@@ -11983,7 +11986,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>1913</v>
       </c>
@@ -12009,7 +12012,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1913</v>
       </c>
@@ -12035,7 +12038,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1913</v>
       </c>
@@ -12061,7 +12064,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1913</v>
       </c>
@@ -12087,7 +12090,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1913</v>
       </c>
@@ -12113,7 +12116,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1913</v>
       </c>
@@ -12139,7 +12142,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1913</v>
       </c>
@@ -12165,7 +12168,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>1913</v>
       </c>
@@ -12191,7 +12194,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1913</v>
       </c>
@@ -12217,7 +12220,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1913</v>
       </c>
@@ -12243,7 +12246,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1913</v>
       </c>
@@ -12269,7 +12272,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1913</v>
       </c>
@@ -12295,7 +12298,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1913</v>
       </c>
@@ -12321,7 +12324,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1913</v>
       </c>
@@ -12347,7 +12350,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1913</v>
       </c>
@@ -12373,7 +12376,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1913</v>
       </c>
@@ -12399,7 +12402,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>1913</v>
       </c>
@@ -12425,7 +12428,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1913</v>
       </c>
@@ -12451,7 +12454,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>1913</v>
       </c>
@@ -12477,7 +12480,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1913</v>
       </c>
@@ -12503,7 +12506,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1913</v>
       </c>
@@ -12529,7 +12532,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1913</v>
       </c>
@@ -12555,7 +12558,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1913</v>
       </c>
@@ -12587,7 +12590,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1913</v>
       </c>
@@ -12613,7 +12616,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1913</v>
       </c>
@@ -12639,7 +12642,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1913</v>
       </c>
@@ -12665,7 +12668,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>1913</v>
       </c>
@@ -12691,7 +12694,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1913</v>
       </c>
@@ -12717,7 +12720,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>1913</v>
       </c>
@@ -12743,7 +12746,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1913</v>
       </c>
@@ -12772,7 +12775,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1913</v>
       </c>
@@ -12801,7 +12804,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1913</v>
       </c>
@@ -12830,7 +12833,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1913</v>
       </c>
@@ -12856,7 +12859,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1913</v>
       </c>
@@ -12882,7 +12885,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1913</v>
       </c>
@@ -12914,7 +12917,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1913</v>
       </c>
@@ -12940,7 +12943,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1913</v>
       </c>
@@ -12966,7 +12969,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1913</v>
       </c>
@@ -12992,7 +12995,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1913</v>
       </c>
@@ -13018,7 +13021,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1913</v>
       </c>
@@ -13050,7 +13053,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1913</v>
       </c>
@@ -13076,7 +13079,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>1913</v>
       </c>
@@ -13102,7 +13105,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>1913</v>
       </c>
@@ -13131,7 +13134,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>1913</v>
       </c>
@@ -13160,7 +13163,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>1913</v>
       </c>
@@ -13189,7 +13192,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>1913</v>
       </c>
@@ -13218,7 +13221,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>1913</v>
       </c>
@@ -13244,7 +13247,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>1913</v>
       </c>
@@ -13270,7 +13273,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>1913</v>
       </c>
@@ -13296,7 +13299,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>1913</v>
       </c>
@@ -13322,7 +13325,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>1913</v>
       </c>
@@ -13348,7 +13351,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>1913</v>
       </c>
@@ -13374,7 +13377,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>1913</v>
       </c>
@@ -13400,7 +13403,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1913</v>
       </c>
@@ -13426,7 +13429,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>1913</v>
       </c>
@@ -13452,7 +13455,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>1913</v>
       </c>
@@ -13478,7 +13481,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>1913</v>
       </c>
@@ -13504,7 +13507,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>1913</v>
       </c>
@@ -13530,7 +13533,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>1913</v>
       </c>
@@ -13556,7 +13559,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>1913</v>
       </c>
@@ -13582,7 +13585,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>1913</v>
       </c>
@@ -13611,7 +13614,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>1913</v>
       </c>
@@ -13640,7 +13643,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>1913</v>
       </c>
@@ -13669,7 +13672,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>1913</v>
       </c>
@@ -13698,7 +13701,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>1913</v>
       </c>
@@ -13727,7 +13730,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>1913</v>
       </c>
@@ -13756,7 +13759,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>1913</v>
       </c>
@@ -13785,7 +13788,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>1913</v>
       </c>
@@ -13811,7 +13814,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>1913</v>
       </c>
@@ -13840,7 +13843,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>1913</v>
       </c>
@@ -13866,7 +13869,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>1913</v>
       </c>
@@ -13892,7 +13895,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>1913</v>
       </c>
@@ -13918,7 +13921,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>1913</v>
       </c>
@@ -13944,7 +13947,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>1913</v>
       </c>
@@ -13970,7 +13973,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>1913</v>
       </c>
@@ -13996,7 +13999,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>1913</v>
       </c>
@@ -14022,7 +14025,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>1913</v>
       </c>
@@ -14048,7 +14051,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>1913</v>
       </c>
@@ -14074,7 +14077,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>1913</v>
       </c>
@@ -14100,7 +14103,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>1913</v>
       </c>
@@ -14126,7 +14129,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>1913</v>
       </c>
@@ -14152,7 +14155,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>1913</v>
       </c>
@@ -14178,7 +14181,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>1913</v>
       </c>
@@ -14204,7 +14207,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>1913</v>
       </c>
@@ -14230,7 +14233,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>1913</v>
       </c>
@@ -14256,7 +14259,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>1913</v>
       </c>
@@ -14282,7 +14285,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>1913</v>
       </c>
@@ -14308,7 +14311,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>1913</v>
       </c>
@@ -14334,7 +14337,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>1913</v>
       </c>
@@ -14360,7 +14363,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>1913</v>
       </c>
@@ -14386,7 +14389,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>1913</v>
       </c>
@@ -14412,7 +14415,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>1913</v>
       </c>
@@ -14438,7 +14441,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1913</v>
       </c>
@@ -14464,7 +14467,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>1913</v>
       </c>
@@ -14490,7 +14493,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>1913</v>
       </c>
@@ -14516,7 +14519,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>1913</v>
       </c>
@@ -14542,7 +14545,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>1913</v>
       </c>
@@ -14568,7 +14571,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>1913</v>
       </c>
@@ -14594,7 +14597,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>1913</v>
       </c>
@@ -14632,7 +14635,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>1913</v>
       </c>
@@ -14658,7 +14661,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>1913</v>
       </c>
@@ -14684,7 +14687,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>1913</v>
       </c>
@@ -14710,7 +14713,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>1913</v>
       </c>
@@ -14736,7 +14739,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>1913</v>
       </c>
@@ -14762,7 +14765,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>1913</v>
       </c>
@@ -14788,7 +14791,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>1913</v>
       </c>
@@ -14814,7 +14817,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>1913</v>
       </c>
@@ -14840,7 +14843,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>1913</v>
       </c>
@@ -14866,7 +14869,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>1913</v>
       </c>
@@ -14892,7 +14895,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>1913</v>
       </c>
@@ -14918,7 +14921,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>1913</v>
       </c>

--- a/data-migration/xlsx_1900-/1913_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1913_Sommer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9874E2D2-C18F-451D-BE44-D3F5171E8D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EA74FF-7496-48A0-9DD2-24FE439A4777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3722,9 +3722,6 @@
     <t>meyerwirz_e</t>
   </si>
   <si>
-    <t>nager _fr</t>
-  </si>
-  <si>
     <t>gysi_a</t>
   </si>
   <si>
@@ -3743,9 +3740,6 @@
     <t>dequervain_a</t>
   </si>
   <si>
-    <t>escher_a</t>
-  </si>
-  <si>
     <t>vonwyss_h1</t>
   </si>
   <si>
@@ -3828,6 +3822,12 @@
   </si>
   <si>
     <t>Prof</t>
+  </si>
+  <si>
+    <t>escher_a2</t>
+  </si>
+  <si>
+    <t>nager_fr</t>
   </si>
 </sst>
 </file>
@@ -4171,21 +4171,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G142" workbookViewId="0">
-      <selection activeCell="K176" sqref="K176"/>
+    <sheetView tabSelected="1" topLeftCell="G155" workbookViewId="0">
+      <selection activeCell="H169" sqref="H169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="42.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="42.88671875" customWidth="1"/>
     <col min="6" max="6" width="82" customWidth="1"/>
-    <col min="7" max="7" width="67.28515625" customWidth="1"/>
-    <col min="8" max="8" width="33.5703125" customWidth="1"/>
+    <col min="7" max="7" width="67.33203125" customWidth="1"/>
+    <col min="8" max="8" width="33.5546875" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1913</v>
       </c>
@@ -4208,13 +4208,13 @@
         <v>1102</v>
       </c>
       <c r="I1" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="J1" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1913</v>
       </c>
@@ -4237,10 +4237,10 @@
         <v>1100</v>
       </c>
       <c r="I2" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1913</v>
       </c>
@@ -4263,10 +4263,10 @@
         <v>1217</v>
       </c>
       <c r="I3" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1913</v>
       </c>
@@ -4289,13 +4289,13 @@
         <v>1102</v>
       </c>
       <c r="I4" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="J4" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1913</v>
       </c>
@@ -4318,10 +4318,10 @@
         <v>1217</v>
       </c>
       <c r="I5" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1913</v>
       </c>
@@ -4344,10 +4344,10 @@
         <v>1217</v>
       </c>
       <c r="I6" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1913</v>
       </c>
@@ -4370,10 +4370,10 @@
         <v>1103</v>
       </c>
       <c r="I7" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1913</v>
       </c>
@@ -4396,10 +4396,10 @@
         <v>1103</v>
       </c>
       <c r="I8" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1913</v>
       </c>
@@ -4422,10 +4422,10 @@
         <v>1104</v>
       </c>
       <c r="I9" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1913</v>
       </c>
@@ -4445,13 +4445,13 @@
         <v>821</v>
       </c>
       <c r="H10" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="I10" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1913</v>
       </c>
@@ -4474,10 +4474,10 @@
         <v>1101</v>
       </c>
       <c r="I11" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1913</v>
       </c>
@@ -4500,10 +4500,10 @@
         <v>1101</v>
       </c>
       <c r="I12" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1913</v>
       </c>
@@ -4526,10 +4526,10 @@
         <v>1218</v>
       </c>
       <c r="I13" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1913</v>
       </c>
@@ -4552,10 +4552,10 @@
         <v>1101</v>
       </c>
       <c r="I14" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1913</v>
       </c>
@@ -4578,10 +4578,10 @@
         <v>1100</v>
       </c>
       <c r="I15" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1913</v>
       </c>
@@ -4601,13 +4601,13 @@
         <v>826</v>
       </c>
       <c r="H16" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="I16" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1913</v>
       </c>
@@ -4630,10 +4630,10 @@
         <v>1100</v>
       </c>
       <c r="I17" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1913</v>
       </c>
@@ -4656,13 +4656,13 @@
         <v>1102</v>
       </c>
       <c r="I18" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="J18" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1913</v>
       </c>
@@ -4685,10 +4685,10 @@
         <v>1103</v>
       </c>
       <c r="I19" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1913</v>
       </c>
@@ -4708,13 +4708,13 @@
         <v>830</v>
       </c>
       <c r="H20" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="I20" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1913</v>
       </c>
@@ -4737,10 +4737,10 @@
         <v>1101</v>
       </c>
       <c r="I21" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1913</v>
       </c>
@@ -4763,10 +4763,10 @@
         <v>1218</v>
       </c>
       <c r="I22" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1913</v>
       </c>
@@ -4786,13 +4786,13 @@
         <v>833</v>
       </c>
       <c r="H23" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="I23" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1913</v>
       </c>
@@ -4815,10 +4815,10 @@
         <v>1100</v>
       </c>
       <c r="I24" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1913</v>
       </c>
@@ -4841,10 +4841,10 @@
         <v>1105</v>
       </c>
       <c r="I25" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1913</v>
       </c>
@@ -4867,10 +4867,10 @@
         <v>1106</v>
       </c>
       <c r="I26" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1913</v>
       </c>
@@ -4890,13 +4890,13 @@
         <v>837</v>
       </c>
       <c r="H27" t="s">
-        <v>1236</v>
+        <v>1263</v>
       </c>
       <c r="I27" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1913</v>
       </c>
@@ -4919,13 +4919,13 @@
         <v>1107</v>
       </c>
       <c r="I28" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="J28" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1913</v>
       </c>
@@ -4945,13 +4945,13 @@
         <v>839</v>
       </c>
       <c r="H29" t="s">
-        <v>1236</v>
+        <v>1263</v>
       </c>
       <c r="I29" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1913</v>
       </c>
@@ -4974,10 +4974,10 @@
         <v>1106</v>
       </c>
       <c r="I30" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1913</v>
       </c>
@@ -5000,10 +5000,10 @@
         <v>1108</v>
       </c>
       <c r="I31" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1913</v>
       </c>
@@ -5026,10 +5026,10 @@
         <v>1109</v>
       </c>
       <c r="I32" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1913</v>
       </c>
@@ -5052,10 +5052,10 @@
         <v>1108</v>
       </c>
       <c r="I33" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1913</v>
       </c>
@@ -5078,10 +5078,10 @@
         <v>1108</v>
       </c>
       <c r="I34" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1913</v>
       </c>
@@ -5104,10 +5104,10 @@
         <v>1109</v>
       </c>
       <c r="I35" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1913</v>
       </c>
@@ -5130,10 +5130,10 @@
         <v>1109</v>
       </c>
       <c r="I36" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1913</v>
       </c>
@@ -5156,10 +5156,10 @@
         <v>1108</v>
       </c>
       <c r="I37" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1913</v>
       </c>
@@ -5182,10 +5182,10 @@
         <v>1110</v>
       </c>
       <c r="I38" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1913</v>
       </c>
@@ -5208,10 +5208,10 @@
         <v>1110</v>
       </c>
       <c r="I39" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1913</v>
       </c>
@@ -5234,10 +5234,10 @@
         <v>1219</v>
       </c>
       <c r="I40" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1913</v>
       </c>
@@ -5260,10 +5260,10 @@
         <v>1219</v>
       </c>
       <c r="I41" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1913</v>
       </c>
@@ -5286,13 +5286,13 @@
         <v>1111</v>
       </c>
       <c r="I42" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="J42" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1913</v>
       </c>
@@ -5315,10 +5315,10 @@
         <v>1112</v>
       </c>
       <c r="I43" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1913</v>
       </c>
@@ -5341,10 +5341,10 @@
         <v>1112</v>
       </c>
       <c r="I44" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1913</v>
       </c>
@@ -5367,10 +5367,10 @@
         <v>1112</v>
       </c>
       <c r="I45" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1913</v>
       </c>
@@ -5393,13 +5393,13 @@
         <v>1111</v>
       </c>
       <c r="I46" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="J46" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1913</v>
       </c>
@@ -5422,10 +5422,10 @@
         <v>1113</v>
       </c>
       <c r="I47" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1913</v>
       </c>
@@ -5448,10 +5448,10 @@
         <v>1220</v>
       </c>
       <c r="I48" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1913</v>
       </c>
@@ -5474,10 +5474,10 @@
         <v>1220</v>
       </c>
       <c r="I49" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1913</v>
       </c>
@@ -5500,10 +5500,10 @@
         <v>1220</v>
       </c>
       <c r="I50" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1913</v>
       </c>
@@ -5526,10 +5526,10 @@
         <v>1115</v>
       </c>
       <c r="I51" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1913</v>
       </c>
@@ -5552,10 +5552,10 @@
         <v>1116</v>
       </c>
       <c r="I52" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1913</v>
       </c>
@@ -5578,10 +5578,10 @@
         <v>1221</v>
       </c>
       <c r="I53" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1913</v>
       </c>
@@ -5604,10 +5604,10 @@
         <v>1105</v>
       </c>
       <c r="I54" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1913</v>
       </c>
@@ -5630,10 +5630,10 @@
         <v>1105</v>
       </c>
       <c r="I55" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1913</v>
       </c>
@@ -5656,13 +5656,13 @@
         <v>1107</v>
       </c>
       <c r="I56" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="J56" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1913</v>
       </c>
@@ -5685,10 +5685,10 @@
         <v>1106</v>
       </c>
       <c r="I57" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1913</v>
       </c>
@@ -5711,10 +5711,10 @@
         <v>1109</v>
       </c>
       <c r="I58" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1913</v>
       </c>
@@ -5737,10 +5737,10 @@
         <v>1117</v>
       </c>
       <c r="I59" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1913</v>
       </c>
@@ -5763,10 +5763,10 @@
         <v>1108</v>
       </c>
       <c r="I60" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1913</v>
       </c>
@@ -5789,10 +5789,10 @@
         <v>1110</v>
       </c>
       <c r="I61" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1913</v>
       </c>
@@ -5815,13 +5815,13 @@
         <v>1111</v>
       </c>
       <c r="I62" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="J62" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1913</v>
       </c>
@@ -5844,13 +5844,13 @@
         <v>1111</v>
       </c>
       <c r="I63" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="J63" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1913</v>
       </c>
@@ -5873,10 +5873,10 @@
         <v>1112</v>
       </c>
       <c r="I64" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1913</v>
       </c>
@@ -5899,10 +5899,10 @@
         <v>1113</v>
       </c>
       <c r="I65" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1913</v>
       </c>
@@ -5925,10 +5925,10 @@
         <v>1220</v>
       </c>
       <c r="I66" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1913</v>
       </c>
@@ -5951,10 +5951,10 @@
         <v>1115</v>
       </c>
       <c r="I67" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1913</v>
       </c>
@@ -5977,10 +5977,10 @@
         <v>1115</v>
       </c>
       <c r="I68" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1913</v>
       </c>
@@ -6003,10 +6003,10 @@
         <v>1115</v>
       </c>
       <c r="I69" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1913</v>
       </c>
@@ -6029,10 +6029,10 @@
         <v>1118</v>
       </c>
       <c r="I70" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1913</v>
       </c>
@@ -6055,10 +6055,10 @@
         <v>1119</v>
       </c>
       <c r="I71" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1913</v>
       </c>
@@ -6078,13 +6078,13 @@
         <v>875</v>
       </c>
       <c r="H72" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I72" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1913</v>
       </c>
@@ -6107,10 +6107,10 @@
         <v>1120</v>
       </c>
       <c r="I73" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1913</v>
       </c>
@@ -6136,10 +6136,10 @@
         <v>1121</v>
       </c>
       <c r="I74" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1913</v>
       </c>
@@ -6162,10 +6162,10 @@
         <v>1121</v>
       </c>
       <c r="I75" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1913</v>
       </c>
@@ -6188,16 +6188,16 @@
         <v>1121</v>
       </c>
       <c r="I76" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="K76" t="s">
         <v>1122</v>
       </c>
       <c r="L76" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1913</v>
       </c>
@@ -6220,16 +6220,16 @@
         <v>1121</v>
       </c>
       <c r="I77" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="K77" t="s">
         <v>1122</v>
       </c>
       <c r="L77" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1913</v>
       </c>
@@ -6252,10 +6252,10 @@
         <v>1121</v>
       </c>
       <c r="I78" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1913</v>
       </c>
@@ -6281,10 +6281,10 @@
         <v>1122</v>
       </c>
       <c r="I79" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1913</v>
       </c>
@@ -6307,10 +6307,10 @@
         <v>1122</v>
       </c>
       <c r="I80" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1913</v>
       </c>
@@ -6333,10 +6333,10 @@
         <v>1122</v>
       </c>
       <c r="I81" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1913</v>
       </c>
@@ -6359,10 +6359,10 @@
         <v>1123</v>
       </c>
       <c r="I82" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1913</v>
       </c>
@@ -6385,10 +6385,10 @@
         <v>1124</v>
       </c>
       <c r="I83" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1913</v>
       </c>
@@ -6411,10 +6411,10 @@
         <v>1222</v>
       </c>
       <c r="I84" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1913</v>
       </c>
@@ -6437,10 +6437,10 @@
         <v>1222</v>
       </c>
       <c r="I85" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1913</v>
       </c>
@@ -6463,10 +6463,10 @@
         <v>1222</v>
       </c>
       <c r="I86" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1913</v>
       </c>
@@ -6489,10 +6489,10 @@
         <v>1125</v>
       </c>
       <c r="I87" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1913</v>
       </c>
@@ -6515,10 +6515,10 @@
         <v>1125</v>
       </c>
       <c r="I88" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1913</v>
       </c>
@@ -6541,10 +6541,10 @@
         <v>1125</v>
       </c>
       <c r="I89" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1913</v>
       </c>
@@ -6567,10 +6567,10 @@
         <v>1125</v>
       </c>
       <c r="I90" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1913</v>
       </c>
@@ -6593,10 +6593,10 @@
         <v>1125</v>
       </c>
       <c r="I91" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1913</v>
       </c>
@@ -6619,13 +6619,13 @@
         <v>1223</v>
       </c>
       <c r="I92" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="J92" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1913</v>
       </c>
@@ -6648,13 +6648,13 @@
         <v>1223</v>
       </c>
       <c r="I93" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="J93" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1913</v>
       </c>
@@ -6677,13 +6677,13 @@
         <v>1223</v>
       </c>
       <c r="I94" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="J94" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1913</v>
       </c>
@@ -6706,13 +6706,13 @@
         <v>1223</v>
       </c>
       <c r="I95" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="J95" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1913</v>
       </c>
@@ -6735,13 +6735,13 @@
         <v>1223</v>
       </c>
       <c r="I96" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="J96" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1913</v>
       </c>
@@ -6764,10 +6764,10 @@
         <v>1126</v>
       </c>
       <c r="I97" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1913</v>
       </c>
@@ -6790,10 +6790,10 @@
         <v>1126</v>
       </c>
       <c r="I98" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1913</v>
       </c>
@@ -6816,10 +6816,10 @@
         <v>1126</v>
       </c>
       <c r="I99" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1913</v>
       </c>
@@ -6842,10 +6842,10 @@
         <v>1126</v>
       </c>
       <c r="I100" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1913</v>
       </c>
@@ -6868,10 +6868,10 @@
         <v>1126</v>
       </c>
       <c r="I101" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1913</v>
       </c>
@@ -6894,10 +6894,10 @@
         <v>1224</v>
       </c>
       <c r="I102" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1913</v>
       </c>
@@ -6920,10 +6920,10 @@
         <v>1224</v>
       </c>
       <c r="I103" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1913</v>
       </c>
@@ -6946,10 +6946,10 @@
         <v>1127</v>
       </c>
       <c r="I104" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1913</v>
       </c>
@@ -6972,10 +6972,10 @@
         <v>1127</v>
       </c>
       <c r="I105" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1913</v>
       </c>
@@ -6998,10 +6998,10 @@
         <v>1127</v>
       </c>
       <c r="I106" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1913</v>
       </c>
@@ -7024,10 +7024,10 @@
         <v>1127</v>
       </c>
       <c r="I107" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1913</v>
       </c>
@@ -7050,10 +7050,10 @@
         <v>1222</v>
       </c>
       <c r="I108" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1913</v>
       </c>
@@ -7076,10 +7076,10 @@
         <v>1225</v>
       </c>
       <c r="I109" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1913</v>
       </c>
@@ -7102,10 +7102,10 @@
         <v>1128</v>
       </c>
       <c r="I110" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1913</v>
       </c>
@@ -7128,10 +7128,10 @@
         <v>1128</v>
       </c>
       <c r="I111" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1913</v>
       </c>
@@ -7154,10 +7154,10 @@
         <v>1129</v>
       </c>
       <c r="I112" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1913</v>
       </c>
@@ -7177,13 +7177,13 @@
         <v>912</v>
       </c>
       <c r="H113" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="I113" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1913</v>
       </c>
@@ -7203,13 +7203,13 @@
         <v>913</v>
       </c>
       <c r="H114" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="I114" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1913</v>
       </c>
@@ -7229,13 +7229,13 @@
         <v>914</v>
       </c>
       <c r="H115" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="I115" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1913</v>
       </c>
@@ -7255,13 +7255,13 @@
         <v>915</v>
       </c>
       <c r="H116" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="I116" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1913</v>
       </c>
@@ -7281,13 +7281,13 @@
         <v>915</v>
       </c>
       <c r="H117" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="I117" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1913</v>
       </c>
@@ -7307,13 +7307,13 @@
         <v>915</v>
       </c>
       <c r="H118" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="I118" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1913</v>
       </c>
@@ -7336,10 +7336,10 @@
         <v>1131</v>
       </c>
       <c r="I119" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1913</v>
       </c>
@@ -7362,10 +7362,10 @@
         <v>1131</v>
       </c>
       <c r="I120" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1913</v>
       </c>
@@ -7388,10 +7388,10 @@
         <v>1131</v>
       </c>
       <c r="I121" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1913</v>
       </c>
@@ -7411,13 +7411,13 @@
         <v>915</v>
       </c>
       <c r="H122" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="I122" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1913</v>
       </c>
@@ -7440,10 +7440,10 @@
         <v>1132</v>
       </c>
       <c r="I123" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1913</v>
       </c>
@@ -7466,10 +7466,10 @@
         <v>1133</v>
       </c>
       <c r="I124" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1913</v>
       </c>
@@ -7492,10 +7492,10 @@
         <v>1133</v>
       </c>
       <c r="I125" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1913</v>
       </c>
@@ -7518,10 +7518,10 @@
         <v>1133</v>
       </c>
       <c r="I126" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1913</v>
       </c>
@@ -7544,10 +7544,10 @@
         <v>1133</v>
       </c>
       <c r="I127" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1913</v>
       </c>
@@ -7570,10 +7570,10 @@
         <v>1226</v>
       </c>
       <c r="I128" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1913</v>
       </c>
@@ -7596,10 +7596,10 @@
         <v>1226</v>
       </c>
       <c r="I129" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1913</v>
       </c>
@@ -7622,10 +7622,10 @@
         <v>1226</v>
       </c>
       <c r="I130" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1913</v>
       </c>
@@ -7648,10 +7648,10 @@
         <v>1134</v>
       </c>
       <c r="I131" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1913</v>
       </c>
@@ -7674,10 +7674,10 @@
         <v>1134</v>
       </c>
       <c r="I132" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1913</v>
       </c>
@@ -7700,10 +7700,10 @@
         <v>1135</v>
       </c>
       <c r="I133" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1913</v>
       </c>
@@ -7726,10 +7726,10 @@
         <v>1135</v>
       </c>
       <c r="I134" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1913</v>
       </c>
@@ -7752,10 +7752,10 @@
         <v>1135</v>
       </c>
       <c r="I135" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1913</v>
       </c>
@@ -7778,10 +7778,10 @@
         <v>1227</v>
       </c>
       <c r="I136" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1913</v>
       </c>
@@ -7804,10 +7804,10 @@
         <v>1136</v>
       </c>
       <c r="I137" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1913</v>
       </c>
@@ -7830,10 +7830,10 @@
         <v>1137</v>
       </c>
       <c r="I138" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1913</v>
       </c>
@@ -7856,10 +7856,10 @@
         <v>1137</v>
       </c>
       <c r="I139" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1913</v>
       </c>
@@ -7882,10 +7882,10 @@
         <v>1138</v>
       </c>
       <c r="I140" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1913</v>
       </c>
@@ -7908,10 +7908,10 @@
         <v>1130</v>
       </c>
       <c r="I141" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1913</v>
       </c>
@@ -7934,10 +7934,10 @@
         <v>1139</v>
       </c>
       <c r="I142" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1913</v>
       </c>
@@ -7960,10 +7960,10 @@
         <v>1140</v>
       </c>
       <c r="I143" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1913</v>
       </c>
@@ -7986,10 +7986,10 @@
         <v>1140</v>
       </c>
       <c r="I144" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1913</v>
       </c>
@@ -8012,10 +8012,10 @@
         <v>1141</v>
       </c>
       <c r="I145" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1913</v>
       </c>
@@ -8038,10 +8038,10 @@
         <v>1141</v>
       </c>
       <c r="I146" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1913</v>
       </c>
@@ -8061,13 +8061,13 @@
         <v>932</v>
       </c>
       <c r="H147" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="I147" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1913</v>
       </c>
@@ -8087,13 +8087,13 @@
         <v>933</v>
       </c>
       <c r="H148" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="I148" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1913</v>
       </c>
@@ -8116,10 +8116,10 @@
         <v>1142</v>
       </c>
       <c r="I149" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1913</v>
       </c>
@@ -8142,10 +8142,10 @@
         <v>1142</v>
       </c>
       <c r="I150" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1913</v>
       </c>
@@ -8165,13 +8165,13 @@
         <v>936</v>
       </c>
       <c r="H151" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="I151" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1913</v>
       </c>
@@ -8191,13 +8191,13 @@
         <v>937</v>
       </c>
       <c r="H152" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="I152" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1913</v>
       </c>
@@ -8220,10 +8220,10 @@
         <v>1228</v>
       </c>
       <c r="I153" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1913</v>
       </c>
@@ -8246,10 +8246,10 @@
         <v>1143</v>
       </c>
       <c r="I154" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1913</v>
       </c>
@@ -8272,10 +8272,10 @@
         <v>1225</v>
       </c>
       <c r="I155" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1913</v>
       </c>
@@ -8298,10 +8298,10 @@
         <v>1144</v>
       </c>
       <c r="I156" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1913</v>
       </c>
@@ -8324,10 +8324,10 @@
         <v>1145</v>
       </c>
       <c r="I157" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1913</v>
       </c>
@@ -8350,10 +8350,10 @@
         <v>1145</v>
       </c>
       <c r="I158" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1913</v>
       </c>
@@ -8376,10 +8376,10 @@
         <v>1145</v>
       </c>
       <c r="I159" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1913</v>
       </c>
@@ -8402,10 +8402,10 @@
         <v>1146</v>
       </c>
       <c r="I160" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1913</v>
       </c>
@@ -8428,10 +8428,10 @@
         <v>1146</v>
       </c>
       <c r="I161" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1913</v>
       </c>
@@ -8454,10 +8454,10 @@
         <v>1146</v>
       </c>
       <c r="I162" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1913</v>
       </c>
@@ -8480,10 +8480,10 @@
         <v>1146</v>
       </c>
       <c r="I163" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1913</v>
       </c>
@@ -8506,10 +8506,10 @@
         <v>1146</v>
       </c>
       <c r="I164" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1913</v>
       </c>
@@ -8532,10 +8532,10 @@
         <v>1146</v>
       </c>
       <c r="I165" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1913</v>
       </c>
@@ -8558,10 +8558,10 @@
         <v>1147</v>
       </c>
       <c r="I166" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1913</v>
       </c>
@@ -8581,13 +8581,13 @@
         <v>947</v>
       </c>
       <c r="H167" t="s">
-        <v>1229</v>
+        <v>1264</v>
       </c>
       <c r="I167" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1913</v>
       </c>
@@ -8607,13 +8607,13 @@
         <v>832</v>
       </c>
       <c r="H168" t="s">
-        <v>1229</v>
+        <v>1264</v>
       </c>
       <c r="I168" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1913</v>
       </c>
@@ -8633,13 +8633,13 @@
         <v>948</v>
       </c>
       <c r="H169" t="s">
-        <v>1229</v>
+        <v>1264</v>
       </c>
       <c r="I169" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1913</v>
       </c>
@@ -8659,13 +8659,13 @@
         <v>817</v>
       </c>
       <c r="H170" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="I170" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1913</v>
       </c>
@@ -8688,10 +8688,10 @@
         <v>1148</v>
       </c>
       <c r="I171" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1913</v>
       </c>
@@ -8714,10 +8714,10 @@
         <v>1148</v>
       </c>
       <c r="I172" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1913</v>
       </c>
@@ -8740,10 +8740,10 @@
         <v>1149</v>
       </c>
       <c r="I173" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1913</v>
       </c>
@@ -8766,10 +8766,10 @@
         <v>1149</v>
       </c>
       <c r="I174" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1913</v>
       </c>
@@ -8792,10 +8792,10 @@
         <v>1149</v>
       </c>
       <c r="I175" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1913</v>
       </c>
@@ -8818,10 +8818,10 @@
         <v>1149</v>
       </c>
       <c r="I176" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1913</v>
       </c>
@@ -8841,13 +8841,13 @@
         <v>955</v>
       </c>
       <c r="H177" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="I177" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1913</v>
       </c>
@@ -8867,13 +8867,13 @@
         <v>816</v>
       </c>
       <c r="H178" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="I178" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1913</v>
       </c>
@@ -8896,13 +8896,13 @@
         <v>1150</v>
       </c>
       <c r="I179" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="J179" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1913</v>
       </c>
@@ -8925,13 +8925,13 @@
         <v>1150</v>
       </c>
       <c r="I180" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="J180" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1913</v>
       </c>
@@ -8954,13 +8954,13 @@
         <v>1150</v>
       </c>
       <c r="I181" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="J181" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1913</v>
       </c>
@@ -8983,13 +8983,13 @@
         <v>1150</v>
       </c>
       <c r="I182" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="J182" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1913</v>
       </c>
@@ -9012,13 +9012,13 @@
         <v>1150</v>
       </c>
       <c r="I183" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="J183" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1913</v>
       </c>
@@ -9041,13 +9041,13 @@
         <v>1150</v>
       </c>
       <c r="I184" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="J184" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1913</v>
       </c>
@@ -9070,13 +9070,13 @@
         <v>1150</v>
       </c>
       <c r="I185" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="J185" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1913</v>
       </c>
@@ -9099,13 +9099,13 @@
         <v>1150</v>
       </c>
       <c r="I186" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="J186" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1913</v>
       </c>
@@ -9128,10 +9128,10 @@
         <v>1151</v>
       </c>
       <c r="I187" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1913</v>
       </c>
@@ -9154,10 +9154,10 @@
         <v>1151</v>
       </c>
       <c r="I188" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1913</v>
       </c>
@@ -9180,10 +9180,10 @@
         <v>1151</v>
       </c>
       <c r="I189" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1913</v>
       </c>
@@ -9206,10 +9206,10 @@
         <v>1151</v>
       </c>
       <c r="I190" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1913</v>
       </c>
@@ -9232,10 +9232,10 @@
         <v>1151</v>
       </c>
       <c r="I191" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1913</v>
       </c>
@@ -9258,10 +9258,10 @@
         <v>1151</v>
       </c>
       <c r="I192" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1913</v>
       </c>
@@ -9284,10 +9284,10 @@
         <v>1152</v>
       </c>
       <c r="I193" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1913</v>
       </c>
@@ -9310,10 +9310,10 @@
         <v>1152</v>
       </c>
       <c r="I194" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1913</v>
       </c>
@@ -9336,10 +9336,10 @@
         <v>1153</v>
       </c>
       <c r="I195" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1913</v>
       </c>
@@ -9362,10 +9362,10 @@
         <v>1153</v>
       </c>
       <c r="I196" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1913</v>
       </c>
@@ -9388,10 +9388,10 @@
         <v>1153</v>
       </c>
       <c r="I197" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1913</v>
       </c>
@@ -9414,10 +9414,10 @@
         <v>1153</v>
       </c>
       <c r="I198" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1913</v>
       </c>
@@ -9440,10 +9440,10 @@
         <v>1153</v>
       </c>
       <c r="I199" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1913</v>
       </c>
@@ -9466,10 +9466,10 @@
         <v>1154</v>
       </c>
       <c r="I200" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1913</v>
       </c>
@@ -9492,10 +9492,10 @@
         <v>1154</v>
       </c>
       <c r="I201" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1913</v>
       </c>
@@ -9518,10 +9518,10 @@
         <v>1154</v>
       </c>
       <c r="I202" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1913</v>
       </c>
@@ -9544,10 +9544,10 @@
         <v>1154</v>
       </c>
       <c r="I203" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1913</v>
       </c>
@@ -9570,10 +9570,10 @@
         <v>1154</v>
       </c>
       <c r="I204" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1913</v>
       </c>
@@ -9596,10 +9596,10 @@
         <v>1155</v>
       </c>
       <c r="I205" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1913</v>
       </c>
@@ -9622,10 +9622,10 @@
         <v>1156</v>
       </c>
       <c r="I206" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1913</v>
       </c>
@@ -9648,10 +9648,10 @@
         <v>1156</v>
       </c>
       <c r="I207" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1913</v>
       </c>
@@ -9674,10 +9674,10 @@
         <v>1157</v>
       </c>
       <c r="I208" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1913</v>
       </c>
@@ -9700,10 +9700,10 @@
         <v>1157</v>
       </c>
       <c r="I209" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1913</v>
       </c>
@@ -9726,10 +9726,10 @@
         <v>1157</v>
       </c>
       <c r="I210" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1913</v>
       </c>
@@ -9752,10 +9752,10 @@
         <v>1158</v>
       </c>
       <c r="I211" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1913</v>
       </c>
@@ -9778,10 +9778,10 @@
         <v>1158</v>
       </c>
       <c r="I212" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1913</v>
       </c>
@@ -9804,10 +9804,10 @@
         <v>1157</v>
       </c>
       <c r="I213" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1913</v>
       </c>
@@ -9827,13 +9827,13 @@
         <v>985</v>
       </c>
       <c r="H214" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I214" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1913</v>
       </c>
@@ -9856,10 +9856,10 @@
         <v>1159</v>
       </c>
       <c r="I215" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1913</v>
       </c>
@@ -9882,10 +9882,10 @@
         <v>1159</v>
       </c>
       <c r="I216" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1913</v>
       </c>
@@ -9908,10 +9908,10 @@
         <v>1159</v>
       </c>
       <c r="I217" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1913</v>
       </c>
@@ -9931,13 +9931,13 @@
         <v>989</v>
       </c>
       <c r="H218" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="I218" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1913</v>
       </c>
@@ -9957,13 +9957,13 @@
         <v>990</v>
       </c>
       <c r="H219" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I219" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1913</v>
       </c>
@@ -9983,13 +9983,13 @@
         <v>991</v>
       </c>
       <c r="H220" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I220" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1913</v>
       </c>
@@ -10012,10 +10012,10 @@
         <v>1157</v>
       </c>
       <c r="I221" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1913</v>
       </c>
@@ -10035,13 +10035,13 @@
         <v>992</v>
       </c>
       <c r="H222" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I222" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1913</v>
       </c>
@@ -10064,10 +10064,10 @@
         <v>1160</v>
       </c>
       <c r="I223" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1913</v>
       </c>
@@ -10090,10 +10090,10 @@
         <v>1161</v>
       </c>
       <c r="I224" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1913</v>
       </c>
@@ -10116,10 +10116,10 @@
         <v>1161</v>
       </c>
       <c r="I225" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1913</v>
       </c>
@@ -10142,10 +10142,10 @@
         <v>1161</v>
       </c>
       <c r="I226" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1913</v>
       </c>
@@ -10168,10 +10168,10 @@
         <v>1161</v>
       </c>
       <c r="I227" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1913</v>
       </c>
@@ -10194,10 +10194,10 @@
         <v>1161</v>
       </c>
       <c r="I228" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1913</v>
       </c>
@@ -10220,10 +10220,10 @@
         <v>1161</v>
       </c>
       <c r="I229" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1913</v>
       </c>
@@ -10246,10 +10246,10 @@
         <v>1158</v>
       </c>
       <c r="I230" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1913</v>
       </c>
@@ -10272,10 +10272,10 @@
         <v>1102</v>
       </c>
       <c r="I231" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1913</v>
       </c>
@@ -10298,13 +10298,13 @@
         <v>1162</v>
       </c>
       <c r="I232" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="J232" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1913</v>
       </c>
@@ -10327,10 +10327,10 @@
         <v>1163</v>
       </c>
       <c r="I233" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1913</v>
       </c>
@@ -10353,10 +10353,10 @@
         <v>1163</v>
       </c>
       <c r="I234" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1913</v>
       </c>
@@ -10379,13 +10379,13 @@
         <v>1162</v>
       </c>
       <c r="I235" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="J235" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1913</v>
       </c>
@@ -10405,13 +10405,13 @@
         <v>1003</v>
       </c>
       <c r="H236" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I236" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1913</v>
       </c>
@@ -10431,13 +10431,13 @@
         <v>1004</v>
       </c>
       <c r="H237" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I237" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1913</v>
       </c>
@@ -10457,13 +10457,13 @@
         <v>1005</v>
       </c>
       <c r="H238" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I238" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1913</v>
       </c>
@@ -10483,13 +10483,13 @@
         <v>1006</v>
       </c>
       <c r="H239" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="I239" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1913</v>
       </c>
@@ -10512,13 +10512,13 @@
         <v>1162</v>
       </c>
       <c r="I240" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="J240" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1913</v>
       </c>
@@ -10541,10 +10541,10 @@
         <v>1164</v>
       </c>
       <c r="I241" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1913</v>
       </c>
@@ -10564,13 +10564,13 @@
         <v>929</v>
       </c>
       <c r="H242" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="I242" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1913</v>
       </c>
@@ -10593,10 +10593,10 @@
         <v>1164</v>
       </c>
       <c r="I243" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1913</v>
       </c>
@@ -10616,13 +10616,13 @@
         <v>1009</v>
       </c>
       <c r="H244" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I244" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1913</v>
       </c>
@@ -10645,10 +10645,10 @@
         <v>1164</v>
       </c>
       <c r="I245" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1913</v>
       </c>
@@ -10671,13 +10671,13 @@
         <v>1162</v>
       </c>
       <c r="I246" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="J246" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1913</v>
       </c>
@@ -10700,10 +10700,10 @@
         <v>1114</v>
       </c>
       <c r="I247" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1913</v>
       </c>
@@ -10726,10 +10726,10 @@
         <v>1114</v>
       </c>
       <c r="I248" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1913</v>
       </c>
@@ -10752,10 +10752,10 @@
         <v>1114</v>
       </c>
       <c r="I249" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1913</v>
       </c>
@@ -10775,13 +10775,13 @@
         <v>1015</v>
       </c>
       <c r="H250" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="I250" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1913</v>
       </c>
@@ -10804,10 +10804,10 @@
         <v>1166</v>
       </c>
       <c r="I251" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1913</v>
       </c>
@@ -10827,13 +10827,13 @@
         <v>1016</v>
       </c>
       <c r="H252" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="I252" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1913</v>
       </c>
@@ -10853,13 +10853,13 @@
         <v>1017</v>
       </c>
       <c r="H253" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="I253" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1913</v>
       </c>
@@ -10882,10 +10882,10 @@
         <v>1167</v>
       </c>
       <c r="I254" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1913</v>
       </c>
@@ -10908,10 +10908,10 @@
         <v>1167</v>
       </c>
       <c r="I255" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1913</v>
       </c>
@@ -10931,13 +10931,13 @@
         <v>1019</v>
       </c>
       <c r="H256" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="I256" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1913</v>
       </c>
@@ -10957,13 +10957,13 @@
         <v>1020</v>
       </c>
       <c r="H257" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="I257" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1913</v>
       </c>
@@ -10983,13 +10983,13 @@
         <v>851</v>
       </c>
       <c r="H258" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="I258" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1913</v>
       </c>
@@ -11012,10 +11012,10 @@
         <v>1168</v>
       </c>
       <c r="I259" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1913</v>
       </c>
@@ -11038,10 +11038,10 @@
         <v>1168</v>
       </c>
       <c r="I260" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1913</v>
       </c>
@@ -11061,13 +11061,13 @@
         <v>861</v>
       </c>
       <c r="H261" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="I261" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1913</v>
       </c>
@@ -11087,13 +11087,13 @@
         <v>817</v>
       </c>
       <c r="H262" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="I262" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1913</v>
       </c>
@@ -11116,10 +11116,10 @@
         <v>1114</v>
       </c>
       <c r="I263" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1913</v>
       </c>
@@ -11142,10 +11142,10 @@
         <v>1114</v>
       </c>
       <c r="I264" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1913</v>
       </c>
@@ -11165,13 +11165,13 @@
         <v>1023</v>
       </c>
       <c r="H265" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="I265" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1913</v>
       </c>
@@ -11191,13 +11191,13 @@
         <v>1024</v>
       </c>
       <c r="H266" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="I266" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1913</v>
       </c>
@@ -11217,13 +11217,13 @@
         <v>911</v>
       </c>
       <c r="H267" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="I267" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1913</v>
       </c>
@@ -11246,10 +11246,10 @@
         <v>1167</v>
       </c>
       <c r="I268" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1913</v>
       </c>
@@ -11272,10 +11272,10 @@
         <v>1169</v>
       </c>
       <c r="I269" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1913</v>
       </c>
@@ -11301,10 +11301,10 @@
         <v>1169</v>
       </c>
       <c r="I270" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1913</v>
       </c>
@@ -11327,10 +11327,10 @@
         <v>1169</v>
       </c>
       <c r="I271" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1913</v>
       </c>
@@ -11350,13 +11350,13 @@
         <v>858</v>
       </c>
       <c r="H272" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I272" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1913</v>
       </c>
@@ -11376,13 +11376,13 @@
         <v>1020</v>
       </c>
       <c r="H273" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I273" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1913</v>
       </c>
@@ -11408,10 +11408,10 @@
         <v>1169</v>
       </c>
       <c r="I274" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1913</v>
       </c>
@@ -11434,10 +11434,10 @@
         <v>1169</v>
       </c>
       <c r="I275" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1913</v>
       </c>
@@ -11460,10 +11460,10 @@
         <v>1169</v>
       </c>
       <c r="I276" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1913</v>
       </c>
@@ -11486,10 +11486,10 @@
         <v>1170</v>
       </c>
       <c r="I277" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1913</v>
       </c>
@@ -11512,10 +11512,10 @@
         <v>1170</v>
       </c>
       <c r="I278" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1913</v>
       </c>
@@ -11538,10 +11538,10 @@
         <v>1171</v>
       </c>
       <c r="I279" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1913</v>
       </c>
@@ -11564,10 +11564,10 @@
         <v>1172</v>
       </c>
       <c r="I280" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1913</v>
       </c>
@@ -11590,10 +11590,10 @@
         <v>1172</v>
       </c>
       <c r="I281" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1913</v>
       </c>
@@ -11616,10 +11616,10 @@
         <v>1173</v>
       </c>
       <c r="I282" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1913</v>
       </c>
@@ -11642,10 +11642,10 @@
         <v>1172</v>
       </c>
       <c r="I283" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1913</v>
       </c>
@@ -11668,10 +11668,10 @@
         <v>1170</v>
       </c>
       <c r="I284" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1913</v>
       </c>
@@ -11694,10 +11694,10 @@
         <v>1120</v>
       </c>
       <c r="I285" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1913</v>
       </c>
@@ -11720,10 +11720,10 @@
         <v>1170</v>
       </c>
       <c r="I286" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1913</v>
       </c>
@@ -11746,10 +11746,10 @@
         <v>1172</v>
       </c>
       <c r="I287" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1913</v>
       </c>
@@ -11769,13 +11769,13 @@
         <v>1032</v>
       </c>
       <c r="H288" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="I288" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1913</v>
       </c>
@@ -11795,13 +11795,13 @@
         <v>1033</v>
       </c>
       <c r="H289" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="I289" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1913</v>
       </c>
@@ -11824,10 +11824,10 @@
         <v>1174</v>
       </c>
       <c r="I290" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1913</v>
       </c>
@@ -11847,13 +11847,13 @@
         <v>1034</v>
       </c>
       <c r="H291" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="I291" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1913</v>
       </c>
@@ -11876,10 +11876,10 @@
         <v>1175</v>
       </c>
       <c r="I292" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1913</v>
       </c>
@@ -11902,10 +11902,10 @@
         <v>1175</v>
       </c>
       <c r="I293" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1913</v>
       </c>
@@ -11925,13 +11925,13 @@
         <v>1016</v>
       </c>
       <c r="H294" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="I294" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1913</v>
       </c>
@@ -11951,13 +11951,13 @@
         <v>1037</v>
       </c>
       <c r="H295" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="I295" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1913</v>
       </c>
@@ -11980,13 +11980,13 @@
         <v>951</v>
       </c>
       <c r="H296" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="I296" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1913</v>
       </c>
@@ -12009,10 +12009,10 @@
         <v>1176</v>
       </c>
       <c r="I297" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1913</v>
       </c>
@@ -12035,10 +12035,10 @@
         <v>1177</v>
       </c>
       <c r="I298" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1913</v>
       </c>
@@ -12058,13 +12058,13 @@
         <v>1039</v>
       </c>
       <c r="H299" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="I299" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1913</v>
       </c>
@@ -12084,13 +12084,13 @@
         <v>862</v>
       </c>
       <c r="H300" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="I300" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1913</v>
       </c>
@@ -12113,10 +12113,10 @@
         <v>1175</v>
       </c>
       <c r="I301" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1913</v>
       </c>
@@ -12136,13 +12136,13 @@
         <v>1041</v>
       </c>
       <c r="H302" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="I302" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1913</v>
       </c>
@@ -12165,10 +12165,10 @@
         <v>1178</v>
       </c>
       <c r="I303" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1913</v>
       </c>
@@ -12191,10 +12191,10 @@
         <v>1164</v>
       </c>
       <c r="I304" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1913</v>
       </c>
@@ -12217,10 +12217,10 @@
         <v>1164</v>
       </c>
       <c r="I305" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1913</v>
       </c>
@@ -12240,13 +12240,13 @@
         <v>861</v>
       </c>
       <c r="H306" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="I306" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1913</v>
       </c>
@@ -12266,13 +12266,13 @@
         <v>1043</v>
       </c>
       <c r="H307" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="I307" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1913</v>
       </c>
@@ -12292,13 +12292,13 @@
         <v>1044</v>
       </c>
       <c r="H308" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="I308" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>1913</v>
       </c>
@@ -12321,10 +12321,10 @@
         <v>1178</v>
       </c>
       <c r="I309" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1913</v>
       </c>
@@ -12347,10 +12347,10 @@
         <v>1179</v>
       </c>
       <c r="I310" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1913</v>
       </c>
@@ -12373,10 +12373,10 @@
         <v>1179</v>
       </c>
       <c r="I311" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1913</v>
       </c>
@@ -12399,10 +12399,10 @@
         <v>1180</v>
       </c>
       <c r="I312" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>1913</v>
       </c>
@@ -12425,10 +12425,10 @@
         <v>1180</v>
       </c>
       <c r="I313" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1913</v>
       </c>
@@ -12451,10 +12451,10 @@
         <v>1181</v>
       </c>
       <c r="I314" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>1913</v>
       </c>
@@ -12477,10 +12477,10 @@
         <v>1181</v>
       </c>
       <c r="I315" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>1913</v>
       </c>
@@ -12503,10 +12503,10 @@
         <v>1182</v>
       </c>
       <c r="I316" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>1913</v>
       </c>
@@ -12529,10 +12529,10 @@
         <v>1183</v>
       </c>
       <c r="I317" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1913</v>
       </c>
@@ -12555,10 +12555,10 @@
         <v>1183</v>
       </c>
       <c r="I318" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1913</v>
       </c>
@@ -12581,16 +12581,16 @@
         <v>1183</v>
       </c>
       <c r="I319" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="K319" t="s">
         <v>1186</v>
       </c>
       <c r="L319" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1913</v>
       </c>
@@ -12613,10 +12613,10 @@
         <v>1184</v>
       </c>
       <c r="I320" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>1913</v>
       </c>
@@ -12639,10 +12639,10 @@
         <v>1184</v>
       </c>
       <c r="I321" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>1913</v>
       </c>
@@ -12665,10 +12665,10 @@
         <v>1185</v>
       </c>
       <c r="I322" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1913</v>
       </c>
@@ -12691,10 +12691,10 @@
         <v>1186</v>
       </c>
       <c r="I323" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>1913</v>
       </c>
@@ -12717,10 +12717,10 @@
         <v>1186</v>
       </c>
       <c r="I324" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1913</v>
       </c>
@@ -12743,10 +12743,10 @@
         <v>1186</v>
       </c>
       <c r="I325" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>1913</v>
       </c>
@@ -12772,10 +12772,10 @@
         <v>1187</v>
       </c>
       <c r="I326" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>1913</v>
       </c>
@@ -12801,10 +12801,10 @@
         <v>1187</v>
       </c>
       <c r="I327" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>1913</v>
       </c>
@@ -12830,10 +12830,10 @@
         <v>1187</v>
       </c>
       <c r="I328" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>1913</v>
       </c>
@@ -12856,10 +12856,10 @@
         <v>1188</v>
       </c>
       <c r="I329" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>1913</v>
       </c>
@@ -12882,10 +12882,10 @@
         <v>1188</v>
       </c>
       <c r="I330" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>1913</v>
       </c>
@@ -12908,16 +12908,16 @@
         <v>1188</v>
       </c>
       <c r="I331" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="K331" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="L331" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>1913</v>
       </c>
@@ -12940,10 +12940,10 @@
         <v>1188</v>
       </c>
       <c r="I332" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>1913</v>
       </c>
@@ -12963,13 +12963,13 @@
         <v>1060</v>
       </c>
       <c r="H333" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="I333" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>1913</v>
       </c>
@@ -12989,13 +12989,13 @@
         <v>1061</v>
       </c>
       <c r="H334" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="I334" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>1913</v>
       </c>
@@ -13015,13 +13015,13 @@
         <v>1059</v>
       </c>
       <c r="H335" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="I335" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1913</v>
       </c>
@@ -13044,16 +13044,16 @@
         <v>1189</v>
       </c>
       <c r="I336" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="K336" t="s">
         <v>1188</v>
       </c>
       <c r="L336" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>1913</v>
       </c>
@@ -13073,13 +13073,13 @@
         <v>915</v>
       </c>
       <c r="H337" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="I337" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>1913</v>
       </c>
@@ -13099,13 +13099,13 @@
         <v>915</v>
       </c>
       <c r="H338" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="I338" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>1913</v>
       </c>
@@ -13128,13 +13128,13 @@
         <v>1165</v>
       </c>
       <c r="I339" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="J339" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>1913</v>
       </c>
@@ -13157,13 +13157,13 @@
         <v>1165</v>
       </c>
       <c r="I340" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="J340" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1913</v>
       </c>
@@ -13186,13 +13186,13 @@
         <v>1165</v>
       </c>
       <c r="I341" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="J341" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>1913</v>
       </c>
@@ -13215,13 +13215,13 @@
         <v>1165</v>
       </c>
       <c r="I342" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="J342" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>1913</v>
       </c>
@@ -13244,10 +13244,10 @@
         <v>1190</v>
       </c>
       <c r="I343" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>1913</v>
       </c>
@@ -13270,10 +13270,10 @@
         <v>1190</v>
       </c>
       <c r="I344" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>1913</v>
       </c>
@@ -13296,10 +13296,10 @@
         <v>1190</v>
       </c>
       <c r="I345" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>1913</v>
       </c>
@@ -13322,10 +13322,10 @@
         <v>1190</v>
       </c>
       <c r="I346" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>1913</v>
       </c>
@@ -13348,10 +13348,10 @@
         <v>1190</v>
       </c>
       <c r="I347" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>1913</v>
       </c>
@@ -13374,10 +13374,10 @@
         <v>1190</v>
       </c>
       <c r="I348" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>1913</v>
       </c>
@@ -13400,10 +13400,10 @@
         <v>1190</v>
       </c>
       <c r="I349" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>1913</v>
       </c>
@@ -13426,10 +13426,10 @@
         <v>1190</v>
       </c>
       <c r="I350" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>1913</v>
       </c>
@@ -13452,10 +13452,10 @@
         <v>1191</v>
       </c>
       <c r="I351" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>1913</v>
       </c>
@@ -13478,10 +13478,10 @@
         <v>1191</v>
       </c>
       <c r="I352" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>1913</v>
       </c>
@@ -13504,10 +13504,10 @@
         <v>1191</v>
       </c>
       <c r="I353" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>1913</v>
       </c>
@@ -13530,10 +13530,10 @@
         <v>1192</v>
       </c>
       <c r="I354" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>1913</v>
       </c>
@@ -13556,10 +13556,10 @@
         <v>1193</v>
       </c>
       <c r="I355" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>1913</v>
       </c>
@@ -13582,10 +13582,10 @@
         <v>1194</v>
       </c>
       <c r="I356" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>1913</v>
       </c>
@@ -13611,10 +13611,10 @@
         <v>1195</v>
       </c>
       <c r="I357" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>1913</v>
       </c>
@@ -13640,10 +13640,10 @@
         <v>1195</v>
       </c>
       <c r="I358" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>1913</v>
       </c>
@@ -13669,10 +13669,10 @@
         <v>1195</v>
       </c>
       <c r="I359" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>1913</v>
       </c>
@@ -13698,10 +13698,10 @@
         <v>1196</v>
       </c>
       <c r="I360" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>1913</v>
       </c>
@@ -13727,10 +13727,10 @@
         <v>1196</v>
       </c>
       <c r="I361" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>1913</v>
       </c>
@@ -13756,10 +13756,10 @@
         <v>1196</v>
       </c>
       <c r="I362" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>1913</v>
       </c>
@@ -13785,10 +13785,10 @@
         <v>1196</v>
       </c>
       <c r="I363" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>1913</v>
       </c>
@@ -13811,10 +13811,10 @@
         <v>1196</v>
       </c>
       <c r="I364" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>1913</v>
       </c>
@@ -13840,10 +13840,10 @@
         <v>1196</v>
       </c>
       <c r="I365" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>1913</v>
       </c>
@@ -13866,10 +13866,10 @@
         <v>1197</v>
       </c>
       <c r="I366" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>1913</v>
       </c>
@@ -13892,10 +13892,10 @@
         <v>1197</v>
       </c>
       <c r="I367" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>1913</v>
       </c>
@@ -13918,10 +13918,10 @@
         <v>1198</v>
       </c>
       <c r="I368" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>1913</v>
       </c>
@@ -13944,10 +13944,10 @@
         <v>1199</v>
       </c>
       <c r="I369" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>1913</v>
       </c>
@@ -13970,10 +13970,10 @@
         <v>1199</v>
       </c>
       <c r="I370" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>1913</v>
       </c>
@@ -13996,10 +13996,10 @@
         <v>1199</v>
       </c>
       <c r="I371" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>1913</v>
       </c>
@@ -14022,10 +14022,10 @@
         <v>1199</v>
       </c>
       <c r="I372" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>1913</v>
       </c>
@@ -14048,10 +14048,10 @@
         <v>1199</v>
       </c>
       <c r="I373" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>1913</v>
       </c>
@@ -14074,10 +14074,10 @@
         <v>1113</v>
       </c>
       <c r="I374" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>1913</v>
       </c>
@@ -14100,10 +14100,10 @@
         <v>1113</v>
       </c>
       <c r="I375" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>1913</v>
       </c>
@@ -14126,10 +14126,10 @@
         <v>1113</v>
       </c>
       <c r="I376" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>1913</v>
       </c>
@@ -14152,10 +14152,10 @@
         <v>1113</v>
       </c>
       <c r="I377" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>1913</v>
       </c>
@@ -14175,13 +14175,13 @@
         <v>817</v>
       </c>
       <c r="H378" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="I378" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>1913</v>
       </c>
@@ -14201,13 +14201,13 @@
         <v>1078</v>
       </c>
       <c r="H379" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="I379" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>1913</v>
       </c>
@@ -14227,13 +14227,13 @@
         <v>1079</v>
       </c>
       <c r="H380" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="I380" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>1913</v>
       </c>
@@ -14253,13 +14253,13 @@
         <v>1080</v>
       </c>
       <c r="H381" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="I381" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>1913</v>
       </c>
@@ -14279,13 +14279,13 @@
         <v>1081</v>
       </c>
       <c r="H382" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="I382" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>1913</v>
       </c>
@@ -14305,13 +14305,13 @@
         <v>1082</v>
       </c>
       <c r="H383" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="I383" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>1913</v>
       </c>
@@ -14331,13 +14331,13 @@
         <v>1083</v>
       </c>
       <c r="H384" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="I384" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="385" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>1913</v>
       </c>
@@ -14360,10 +14360,10 @@
         <v>1200</v>
       </c>
       <c r="I385" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="386" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>1913</v>
       </c>
@@ -14386,10 +14386,10 @@
         <v>1200</v>
       </c>
       <c r="I386" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="387" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>1913</v>
       </c>
@@ -14412,10 +14412,10 @@
         <v>1200</v>
       </c>
       <c r="I387" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="388" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>1913</v>
       </c>
@@ -14438,10 +14438,10 @@
         <v>1200</v>
       </c>
       <c r="I388" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="389" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>1913</v>
       </c>
@@ -14464,10 +14464,10 @@
         <v>1200</v>
       </c>
       <c r="I389" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="390" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>1913</v>
       </c>
@@ -14490,10 +14490,10 @@
         <v>1200</v>
       </c>
       <c r="I390" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="391" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>1913</v>
       </c>
@@ -14516,10 +14516,10 @@
         <v>1201</v>
       </c>
       <c r="I391" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="392" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>1913</v>
       </c>
@@ -14542,10 +14542,10 @@
         <v>1202</v>
       </c>
       <c r="I392" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="393" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>1913</v>
       </c>
@@ -14568,10 +14568,10 @@
         <v>1202</v>
       </c>
       <c r="I393" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="394" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>1913</v>
       </c>
@@ -14594,10 +14594,10 @@
         <v>1203</v>
       </c>
       <c r="I394" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="395" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>1913</v>
       </c>
@@ -14620,22 +14620,22 @@
         <v>1204</v>
       </c>
       <c r="I395" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="K395" t="s">
         <v>1205</v>
       </c>
       <c r="L395" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="M395" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="N395" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="396" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>1913</v>
       </c>
@@ -14658,10 +14658,10 @@
         <v>1205</v>
       </c>
       <c r="I396" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="397" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>1913</v>
       </c>
@@ -14684,10 +14684,10 @@
         <v>1205</v>
       </c>
       <c r="I397" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="398" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>1913</v>
       </c>
@@ -14710,10 +14710,10 @@
         <v>1205</v>
       </c>
       <c r="I398" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="399" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>1913</v>
       </c>
@@ -14736,10 +14736,10 @@
         <v>1206</v>
       </c>
       <c r="I399" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="400" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>1913</v>
       </c>
@@ -14762,10 +14762,10 @@
         <v>1206</v>
       </c>
       <c r="I400" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>1913</v>
       </c>
@@ -14788,10 +14788,10 @@
         <v>1207</v>
       </c>
       <c r="I401" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>1913</v>
       </c>
@@ -14814,10 +14814,10 @@
         <v>1208</v>
       </c>
       <c r="I402" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>1913</v>
       </c>
@@ -14840,10 +14840,10 @@
         <v>1209</v>
       </c>
       <c r="I403" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>1913</v>
       </c>
@@ -14866,10 +14866,10 @@
         <v>1210</v>
       </c>
       <c r="I404" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>1913</v>
       </c>
@@ -14892,10 +14892,10 @@
         <v>1210</v>
       </c>
       <c r="I405" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>1913</v>
       </c>
@@ -14918,10 +14918,10 @@
         <v>1210</v>
       </c>
       <c r="I406" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>1913</v>
       </c>
@@ -14944,7 +14944,7 @@
         <v>1210</v>
       </c>
       <c r="I407" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
   </sheetData>

--- a/data-migration/xlsx_1900-/1913_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1913_Sommer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\TEMP_REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EA74FF-7496-48A0-9DD2-24FE439A4777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41228263-2AF2-4EF9-BF5C-036399F56FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3428,9 +3428,6 @@
     <t>wyss_mo</t>
   </si>
   <si>
-    <t>roth_o</t>
-  </si>
-  <si>
     <t>oswald_a</t>
   </si>
   <si>
@@ -3470,9 +3467,6 @@
     <t>jung_c</t>
   </si>
   <si>
-    <t>maier_hg</t>
-  </si>
-  <si>
     <t>zangger_h</t>
   </si>
   <si>
@@ -3653,9 +3647,6 @@
     <t>hescheler_k</t>
   </si>
   <si>
-    <t>standfuss_m</t>
-  </si>
-  <si>
     <t>bretscher_k</t>
   </si>
   <si>
@@ -3689,9 +3680,6 @@
     <t>koehler_l1</t>
   </si>
   <si>
-    <t>vonschulthessrechberg_g</t>
-  </si>
-  <si>
     <t>huber_m</t>
   </si>
   <si>
@@ -3701,12 +3689,6 @@
     <t>hedinger</t>
   </si>
   <si>
-    <t>vonmonakow_c</t>
-  </si>
-  <si>
-    <t>silberschmidt _w</t>
-  </si>
-  <si>
     <t>cloetta_m</t>
   </si>
   <si>
@@ -3740,15 +3722,9 @@
     <t>dequervain_a</t>
   </si>
   <si>
-    <t>vonwyss_h1</t>
-  </si>
-  <si>
     <t>huber_a</t>
   </si>
   <si>
-    <t>meyerrueegg_h</t>
-  </si>
-  <si>
     <t>schinz_m</t>
   </si>
   <si>
@@ -3828,6 +3804,30 @@
   </si>
   <si>
     <t>nager_fr</t>
+  </si>
+  <si>
+    <t>maier_hw</t>
+  </si>
+  <si>
+    <t>meyer-rueegg_h</t>
+  </si>
+  <si>
+    <t>vonwyss_h2</t>
+  </si>
+  <si>
+    <t>monakow_c</t>
+  </si>
+  <si>
+    <t>schulthess_rg</t>
+  </si>
+  <si>
+    <t>roth_o2</t>
+  </si>
+  <si>
+    <t>standfuss_mr</t>
+  </si>
+  <si>
+    <t>silberschmidt_w</t>
   </si>
 </sst>
 </file>
@@ -3863,11 +3863,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -4171,11 +4174,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N407"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G155" workbookViewId="0">
-      <selection activeCell="H169" sqref="H169"/>
+    <sheetView tabSelected="1" topLeftCell="G76" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="15.5546875" customWidth="1"/>
     <col min="5" max="5" width="42.88671875" customWidth="1"/>
@@ -4196,7 +4199,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -4208,10 +4211,10 @@
         <v>1102</v>
       </c>
       <c r="I1" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="J1" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -4225,7 +4228,7 @@
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="F2" t="s">
         <v>412</v>
@@ -4237,7 +4240,7 @@
         <v>1100</v>
       </c>
       <c r="I2" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -4251,7 +4254,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="F3" t="s">
         <v>413</v>
@@ -4260,10 +4263,10 @@
         <v>814</v>
       </c>
       <c r="H3" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="I3" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -4277,7 +4280,7 @@
         <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="F4" t="s">
         <v>414</v>
@@ -4289,10 +4292,10 @@
         <v>1102</v>
       </c>
       <c r="I4" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="J4" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -4306,7 +4309,7 @@
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="F5" t="s">
         <v>415</v>
@@ -4315,10 +4318,10 @@
         <v>816</v>
       </c>
       <c r="H5" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="I5" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -4332,7 +4335,7 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="F6" t="s">
         <v>416</v>
@@ -4341,10 +4344,10 @@
         <v>817</v>
       </c>
       <c r="H6" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="I6" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -4358,7 +4361,7 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="F7" t="s">
         <v>417</v>
@@ -4370,7 +4373,7 @@
         <v>1103</v>
       </c>
       <c r="I7" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -4384,7 +4387,7 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="F8" t="s">
         <v>418</v>
@@ -4396,7 +4399,7 @@
         <v>1103</v>
       </c>
       <c r="I8" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -4410,7 +4413,7 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="F9" t="s">
         <v>419</v>
@@ -4422,7 +4425,7 @@
         <v>1104</v>
       </c>
       <c r="I9" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -4436,7 +4439,7 @@
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="F10" t="s">
         <v>420</v>
@@ -4445,10 +4448,10 @@
         <v>821</v>
       </c>
       <c r="H10" t="s">
-        <v>1244</v>
+        <v>1236</v>
       </c>
       <c r="I10" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -4462,7 +4465,7 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="F11" t="s">
         <v>421</v>
@@ -4474,7 +4477,7 @@
         <v>1101</v>
       </c>
       <c r="I11" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -4488,7 +4491,7 @@
         <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="F12" t="s">
         <v>422</v>
@@ -4500,7 +4503,7 @@
         <v>1101</v>
       </c>
       <c r="I12" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -4514,7 +4517,7 @@
         <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="F13" t="s">
         <v>423</v>
@@ -4523,10 +4526,10 @@
         <v>823</v>
       </c>
       <c r="H13" t="s">
-        <v>1218</v>
+        <v>1261</v>
       </c>
       <c r="I13" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -4540,7 +4543,7 @@
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="F14" t="s">
         <v>424</v>
@@ -4552,7 +4555,7 @@
         <v>1101</v>
       </c>
       <c r="I14" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -4566,7 +4569,7 @@
         <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="F15" t="s">
         <v>425</v>
@@ -4578,7 +4581,7 @@
         <v>1100</v>
       </c>
       <c r="I15" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -4592,7 +4595,7 @@
         <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="F16" t="s">
         <v>426</v>
@@ -4601,10 +4604,10 @@
         <v>826</v>
       </c>
       <c r="H16" t="s">
-        <v>1244</v>
+        <v>1236</v>
       </c>
       <c r="I16" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -4618,7 +4621,7 @@
         <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="F17" t="s">
         <v>427</v>
@@ -4630,7 +4633,7 @@
         <v>1100</v>
       </c>
       <c r="I17" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -4644,7 +4647,7 @@
         <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="F18" t="s">
         <v>428</v>
@@ -4656,10 +4659,10 @@
         <v>1102</v>
       </c>
       <c r="I18" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="J18" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -4673,7 +4676,7 @@
         <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="F19" t="s">
         <v>429</v>
@@ -4685,7 +4688,7 @@
         <v>1103</v>
       </c>
       <c r="I19" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -4699,7 +4702,7 @@
         <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="F20" t="s">
         <v>430</v>
@@ -4708,10 +4711,10 @@
         <v>830</v>
       </c>
       <c r="H20" t="s">
-        <v>1244</v>
+        <v>1236</v>
       </c>
       <c r="I20" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -4725,7 +4728,7 @@
         <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="F21" t="s">
         <v>431</v>
@@ -4737,7 +4740,7 @@
         <v>1101</v>
       </c>
       <c r="I21" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -4751,7 +4754,7 @@
         <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="F22" t="s">
         <v>432</v>
@@ -4760,10 +4763,10 @@
         <v>832</v>
       </c>
       <c r="H22" t="s">
-        <v>1218</v>
+        <v>1261</v>
       </c>
       <c r="I22" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -4777,7 +4780,7 @@
         <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="F23" t="s">
         <v>433</v>
@@ -4786,10 +4789,10 @@
         <v>833</v>
       </c>
       <c r="H23" t="s">
-        <v>1244</v>
+        <v>1236</v>
       </c>
       <c r="I23" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -4803,7 +4806,7 @@
         <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="F24" t="s">
         <v>434</v>
@@ -4815,7 +4818,7 @@
         <v>1100</v>
       </c>
       <c r="I24" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -4829,7 +4832,7 @@
         <v>29</v>
       </c>
       <c r="E25" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F25" t="s">
         <v>435</v>
@@ -4841,7 +4844,7 @@
         <v>1105</v>
       </c>
       <c r="I25" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -4855,7 +4858,7 @@
         <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F26" t="s">
         <v>436</v>
@@ -4867,7 +4870,7 @@
         <v>1106</v>
       </c>
       <c r="I26" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -4881,7 +4884,7 @@
         <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F27" t="s">
         <v>437</v>
@@ -4890,10 +4893,10 @@
         <v>837</v>
       </c>
       <c r="H27" t="s">
-        <v>1263</v>
+        <v>1255</v>
       </c>
       <c r="I27" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -4907,7 +4910,7 @@
         <v>32</v>
       </c>
       <c r="E28" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F28" t="s">
         <v>438</v>
@@ -4919,10 +4922,10 @@
         <v>1107</v>
       </c>
       <c r="I28" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="J28" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -4936,7 +4939,7 @@
         <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F29" t="s">
         <v>439</v>
@@ -4945,10 +4948,10 @@
         <v>839</v>
       </c>
       <c r="H29" t="s">
-        <v>1263</v>
+        <v>1255</v>
       </c>
       <c r="I29" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -4962,7 +4965,7 @@
         <v>34</v>
       </c>
       <c r="E30" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F30" t="s">
         <v>440</v>
@@ -4974,7 +4977,7 @@
         <v>1106</v>
       </c>
       <c r="I30" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -4988,7 +4991,7 @@
         <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F31" t="s">
         <v>441</v>
@@ -5000,7 +5003,7 @@
         <v>1108</v>
       </c>
       <c r="I31" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -5014,7 +5017,7 @@
         <v>36</v>
       </c>
       <c r="E32" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F32" t="s">
         <v>442</v>
@@ -5026,7 +5029,7 @@
         <v>1109</v>
       </c>
       <c r="I32" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -5040,7 +5043,7 @@
         <v>37</v>
       </c>
       <c r="E33" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F33" t="s">
         <v>443</v>
@@ -5052,7 +5055,7 @@
         <v>1108</v>
       </c>
       <c r="I33" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -5066,7 +5069,7 @@
         <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F34" t="s">
         <v>444</v>
@@ -5078,7 +5081,7 @@
         <v>1108</v>
       </c>
       <c r="I34" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -5092,7 +5095,7 @@
         <v>39</v>
       </c>
       <c r="E35" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F35" t="s">
         <v>445</v>
@@ -5104,7 +5107,7 @@
         <v>1109</v>
       </c>
       <c r="I35" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -5118,7 +5121,7 @@
         <v>40</v>
       </c>
       <c r="E36" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F36" t="s">
         <v>446</v>
@@ -5130,7 +5133,7 @@
         <v>1109</v>
       </c>
       <c r="I36" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -5144,7 +5147,7 @@
         <v>41</v>
       </c>
       <c r="E37" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F37" t="s">
         <v>447</v>
@@ -5156,7 +5159,7 @@
         <v>1108</v>
       </c>
       <c r="I37" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -5170,7 +5173,7 @@
         <v>42</v>
       </c>
       <c r="E38" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F38" t="s">
         <v>448</v>
@@ -5182,7 +5185,7 @@
         <v>1110</v>
       </c>
       <c r="I38" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -5196,7 +5199,7 @@
         <v>43</v>
       </c>
       <c r="E39" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F39" t="s">
         <v>449</v>
@@ -5208,7 +5211,7 @@
         <v>1110</v>
       </c>
       <c r="I39" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -5222,7 +5225,7 @@
         <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F40" t="s">
         <v>450</v>
@@ -5231,10 +5234,10 @@
         <v>849</v>
       </c>
       <c r="H40" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="I40" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -5248,7 +5251,7 @@
         <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F41" t="s">
         <v>451</v>
@@ -5257,10 +5260,10 @@
         <v>834</v>
       </c>
       <c r="H41" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="I41" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -5274,7 +5277,7 @@
         <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F42" t="s">
         <v>452</v>
@@ -5286,10 +5289,10 @@
         <v>1111</v>
       </c>
       <c r="I42" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="J42" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -5303,7 +5306,7 @@
         <v>47</v>
       </c>
       <c r="E43" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F43" t="s">
         <v>453</v>
@@ -5315,7 +5318,7 @@
         <v>1112</v>
       </c>
       <c r="I43" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -5329,7 +5332,7 @@
         <v>48</v>
       </c>
       <c r="E44" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F44" t="s">
         <v>454</v>
@@ -5341,7 +5344,7 @@
         <v>1112</v>
       </c>
       <c r="I44" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -5355,7 +5358,7 @@
         <v>49</v>
       </c>
       <c r="E45" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F45" t="s">
         <v>455</v>
@@ -5367,7 +5370,7 @@
         <v>1112</v>
       </c>
       <c r="I45" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -5381,7 +5384,7 @@
         <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F46" t="s">
         <v>456</v>
@@ -5393,10 +5396,10 @@
         <v>1111</v>
       </c>
       <c r="I46" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="J46" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -5410,7 +5413,7 @@
         <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F47" t="s">
         <v>457</v>
@@ -5422,7 +5425,7 @@
         <v>1113</v>
       </c>
       <c r="I47" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -5436,7 +5439,7 @@
         <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F48" t="s">
         <v>458</v>
@@ -5445,10 +5448,10 @@
         <v>854</v>
       </c>
       <c r="H48" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="I48" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -5462,7 +5465,7 @@
         <v>53</v>
       </c>
       <c r="E49" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F49" t="s">
         <v>459</v>
@@ -5471,10 +5474,10 @@
         <v>855</v>
       </c>
       <c r="H49" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="I49" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -5488,7 +5491,7 @@
         <v>54</v>
       </c>
       <c r="E50" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F50" t="s">
         <v>460</v>
@@ -5497,10 +5500,10 @@
         <v>856</v>
       </c>
       <c r="H50" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="I50" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -5514,7 +5517,7 @@
         <v>55</v>
       </c>
       <c r="E51" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F51" t="s">
         <v>461</v>
@@ -5526,7 +5529,7 @@
         <v>1115</v>
       </c>
       <c r="I51" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -5540,7 +5543,7 @@
         <v>56</v>
       </c>
       <c r="E52" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F52" t="s">
         <v>462</v>
@@ -5552,7 +5555,7 @@
         <v>1116</v>
       </c>
       <c r="I52" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -5566,7 +5569,7 @@
         <v>57</v>
       </c>
       <c r="E53" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F53" t="s">
         <v>463</v>
@@ -5575,10 +5578,10 @@
         <v>859</v>
       </c>
       <c r="H53" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="I53" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -5592,7 +5595,7 @@
         <v>58</v>
       </c>
       <c r="E54" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F54" t="s">
         <v>464</v>
@@ -5604,7 +5607,7 @@
         <v>1105</v>
       </c>
       <c r="I54" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -5618,7 +5621,7 @@
         <v>59</v>
       </c>
       <c r="E55" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F55" t="s">
         <v>465</v>
@@ -5630,7 +5633,7 @@
         <v>1105</v>
       </c>
       <c r="I55" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -5644,7 +5647,7 @@
         <v>60</v>
       </c>
       <c r="E56" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F56" t="s">
         <v>466</v>
@@ -5656,10 +5659,10 @@
         <v>1107</v>
       </c>
       <c r="I56" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="J56" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -5673,7 +5676,7 @@
         <v>61</v>
       </c>
       <c r="E57" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F57" t="s">
         <v>467</v>
@@ -5685,7 +5688,7 @@
         <v>1106</v>
       </c>
       <c r="I57" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -5699,7 +5702,7 @@
         <v>62</v>
       </c>
       <c r="E58" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F58" t="s">
         <v>468</v>
@@ -5711,7 +5714,7 @@
         <v>1109</v>
       </c>
       <c r="I58" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -5725,7 +5728,7 @@
         <v>63</v>
       </c>
       <c r="E59" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F59" t="s">
         <v>469</v>
@@ -5737,7 +5740,7 @@
         <v>1117</v>
       </c>
       <c r="I59" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -5751,7 +5754,7 @@
         <v>64</v>
       </c>
       <c r="E60" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F60" t="s">
         <v>470</v>
@@ -5763,7 +5766,7 @@
         <v>1108</v>
       </c>
       <c r="I60" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -5777,7 +5780,7 @@
         <v>65</v>
       </c>
       <c r="E61" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F61" t="s">
         <v>471</v>
@@ -5789,7 +5792,7 @@
         <v>1110</v>
       </c>
       <c r="I61" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -5803,7 +5806,7 @@
         <v>66</v>
       </c>
       <c r="E62" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F62" t="s">
         <v>472</v>
@@ -5815,10 +5818,10 @@
         <v>1111</v>
       </c>
       <c r="I62" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="J62" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -5832,7 +5835,7 @@
         <v>67</v>
       </c>
       <c r="E63" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F63" t="s">
         <v>473</v>
@@ -5844,10 +5847,10 @@
         <v>1111</v>
       </c>
       <c r="I63" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="J63" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -5861,7 +5864,7 @@
         <v>68</v>
       </c>
       <c r="E64" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F64" t="s">
         <v>474</v>
@@ -5873,7 +5876,7 @@
         <v>1112</v>
       </c>
       <c r="I64" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -5887,7 +5890,7 @@
         <v>69</v>
       </c>
       <c r="E65" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F65" t="s">
         <v>475</v>
@@ -5899,7 +5902,7 @@
         <v>1113</v>
       </c>
       <c r="I65" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
@@ -5913,7 +5916,7 @@
         <v>70</v>
       </c>
       <c r="E66" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F66" t="s">
         <v>476</v>
@@ -5922,10 +5925,10 @@
         <v>869</v>
       </c>
       <c r="H66" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="I66" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.3">
@@ -5939,7 +5942,7 @@
         <v>71</v>
       </c>
       <c r="E67" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F67" t="s">
         <v>477</v>
@@ -5951,7 +5954,7 @@
         <v>1115</v>
       </c>
       <c r="I67" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.3">
@@ -5965,7 +5968,7 @@
         <v>72</v>
       </c>
       <c r="E68" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F68" t="s">
         <v>478</v>
@@ -5977,7 +5980,7 @@
         <v>1115</v>
       </c>
       <c r="I68" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.3">
@@ -5991,7 +5994,7 @@
         <v>73</v>
       </c>
       <c r="E69" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F69" t="s">
         <v>479</v>
@@ -6003,7 +6006,7 @@
         <v>1115</v>
       </c>
       <c r="I69" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
@@ -6017,7 +6020,7 @@
         <v>74</v>
       </c>
       <c r="E70" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F70" t="s">
         <v>480</v>
@@ -6029,7 +6032,7 @@
         <v>1118</v>
       </c>
       <c r="I70" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
@@ -6043,7 +6046,7 @@
         <v>75</v>
       </c>
       <c r="E71" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F71" t="s">
         <v>481</v>
@@ -6055,7 +6058,7 @@
         <v>1119</v>
       </c>
       <c r="I71" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
@@ -6069,7 +6072,7 @@
         <v>76</v>
       </c>
       <c r="E72" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F72" t="s">
         <v>482</v>
@@ -6078,10 +6081,10 @@
         <v>875</v>
       </c>
       <c r="H72" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="I72" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
@@ -6095,7 +6098,7 @@
         <v>77</v>
       </c>
       <c r="E73" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="F73" t="s">
         <v>483</v>
@@ -6107,7 +6110,7 @@
         <v>1120</v>
       </c>
       <c r="I73" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
@@ -6124,7 +6127,7 @@
         <v>78</v>
       </c>
       <c r="E74" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F74" t="s">
         <v>484</v>
@@ -6136,7 +6139,7 @@
         <v>1121</v>
       </c>
       <c r="I74" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
@@ -6150,7 +6153,7 @@
         <v>79</v>
       </c>
       <c r="E75" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F75" t="s">
         <v>485</v>
@@ -6162,7 +6165,7 @@
         <v>1121</v>
       </c>
       <c r="I75" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.3">
@@ -6176,7 +6179,7 @@
         <v>80</v>
       </c>
       <c r="E76" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F76" t="s">
         <v>486</v>
@@ -6188,13 +6191,13 @@
         <v>1121</v>
       </c>
       <c r="I76" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="K76" t="s">
         <v>1122</v>
       </c>
       <c r="L76" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.3">
@@ -6208,7 +6211,7 @@
         <v>81</v>
       </c>
       <c r="E77" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F77" t="s">
         <v>487</v>
@@ -6220,13 +6223,13 @@
         <v>1121</v>
       </c>
       <c r="I77" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="K77" t="s">
         <v>1122</v>
       </c>
       <c r="L77" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.3">
@@ -6240,7 +6243,7 @@
         <v>82</v>
       </c>
       <c r="E78" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F78" t="s">
         <v>488</v>
@@ -6252,7 +6255,7 @@
         <v>1121</v>
       </c>
       <c r="I78" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.3">
@@ -6269,7 +6272,7 @@
         <v>83</v>
       </c>
       <c r="E79" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F79" t="s">
         <v>489</v>
@@ -6281,7 +6284,7 @@
         <v>1122</v>
       </c>
       <c r="I79" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.3">
@@ -6295,7 +6298,7 @@
         <v>84</v>
       </c>
       <c r="E80" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F80" t="s">
         <v>490</v>
@@ -6307,7 +6310,7 @@
         <v>1122</v>
       </c>
       <c r="I80" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -6321,7 +6324,7 @@
         <v>85</v>
       </c>
       <c r="E81" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F81" t="s">
         <v>491</v>
@@ -6333,7 +6336,7 @@
         <v>1122</v>
       </c>
       <c r="I81" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -6347,7 +6350,7 @@
         <v>86</v>
       </c>
       <c r="E82" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F82" t="s">
         <v>492</v>
@@ -6359,7 +6362,7 @@
         <v>1123</v>
       </c>
       <c r="I82" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -6373,7 +6376,7 @@
         <v>87</v>
       </c>
       <c r="E83" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F83" t="s">
         <v>493</v>
@@ -6385,7 +6388,7 @@
         <v>1124</v>
       </c>
       <c r="I83" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -6399,7 +6402,7 @@
         <v>88</v>
       </c>
       <c r="E84" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F84" t="s">
         <v>494</v>
@@ -6408,10 +6411,10 @@
         <v>887</v>
       </c>
       <c r="H84" t="s">
-        <v>1222</v>
+        <v>1260</v>
       </c>
       <c r="I84" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -6425,7 +6428,7 @@
         <v>89</v>
       </c>
       <c r="E85" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F85" t="s">
         <v>495</v>
@@ -6434,10 +6437,10 @@
         <v>888</v>
       </c>
       <c r="H85" t="s">
-        <v>1222</v>
+        <v>1260</v>
       </c>
       <c r="I85" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -6451,7 +6454,7 @@
         <v>90</v>
       </c>
       <c r="E86" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F86" t="s">
         <v>496</v>
@@ -6460,10 +6463,10 @@
         <v>881</v>
       </c>
       <c r="H86" t="s">
-        <v>1222</v>
+        <v>1260</v>
       </c>
       <c r="I86" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -6477,7 +6480,7 @@
         <v>91</v>
       </c>
       <c r="E87" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F87" t="s">
         <v>497</v>
@@ -6489,7 +6492,7 @@
         <v>1125</v>
       </c>
       <c r="I87" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -6503,7 +6506,7 @@
         <v>92</v>
       </c>
       <c r="E88" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F88" t="s">
         <v>498</v>
@@ -6515,7 +6518,7 @@
         <v>1125</v>
       </c>
       <c r="I88" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -6529,7 +6532,7 @@
         <v>93</v>
       </c>
       <c r="E89" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F89" t="s">
         <v>499</v>
@@ -6541,7 +6544,7 @@
         <v>1125</v>
       </c>
       <c r="I89" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -6555,7 +6558,7 @@
         <v>94</v>
       </c>
       <c r="E90" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F90" t="s">
         <v>500</v>
@@ -6567,7 +6570,7 @@
         <v>1125</v>
       </c>
       <c r="I90" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -6581,7 +6584,7 @@
         <v>95</v>
       </c>
       <c r="E91" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F91" t="s">
         <v>501</v>
@@ -6593,7 +6596,7 @@
         <v>1125</v>
       </c>
       <c r="I91" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -6607,7 +6610,7 @@
         <v>96</v>
       </c>
       <c r="E92" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F92" t="s">
         <v>502</v>
@@ -6616,13 +6619,13 @@
         <v>894</v>
       </c>
       <c r="H92" t="s">
-        <v>1223</v>
+        <v>1264</v>
       </c>
       <c r="I92" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="J92" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -6636,7 +6639,7 @@
         <v>97</v>
       </c>
       <c r="E93" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F93" t="s">
         <v>503</v>
@@ -6645,13 +6648,13 @@
         <v>895</v>
       </c>
       <c r="H93" t="s">
-        <v>1223</v>
+        <v>1264</v>
       </c>
       <c r="I93" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="J93" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -6665,7 +6668,7 @@
         <v>98</v>
       </c>
       <c r="E94" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F94" t="s">
         <v>504</v>
@@ -6674,13 +6677,13 @@
         <v>896</v>
       </c>
       <c r="H94" t="s">
-        <v>1223</v>
+        <v>1264</v>
       </c>
       <c r="I94" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="J94" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -6694,7 +6697,7 @@
         <v>99</v>
       </c>
       <c r="E95" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F95" t="s">
         <v>505</v>
@@ -6703,13 +6706,13 @@
         <v>897</v>
       </c>
       <c r="H95" t="s">
-        <v>1223</v>
+        <v>1264</v>
       </c>
       <c r="I95" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="J95" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -6723,7 +6726,7 @@
         <v>100</v>
       </c>
       <c r="E96" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F96" t="s">
         <v>506</v>
@@ -6732,13 +6735,13 @@
         <v>898</v>
       </c>
       <c r="H96" t="s">
-        <v>1223</v>
+        <v>1264</v>
       </c>
       <c r="I96" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="J96" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
@@ -6752,7 +6755,7 @@
         <v>101</v>
       </c>
       <c r="E97" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F97" t="s">
         <v>507</v>
@@ -6764,7 +6767,7 @@
         <v>1126</v>
       </c>
       <c r="I97" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
@@ -6778,7 +6781,7 @@
         <v>102</v>
       </c>
       <c r="E98" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F98" t="s">
         <v>508</v>
@@ -6790,7 +6793,7 @@
         <v>1126</v>
       </c>
       <c r="I98" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
@@ -6804,7 +6807,7 @@
         <v>103</v>
       </c>
       <c r="E99" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F99" t="s">
         <v>509</v>
@@ -6816,7 +6819,7 @@
         <v>1126</v>
       </c>
       <c r="I99" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
@@ -6830,7 +6833,7 @@
         <v>104</v>
       </c>
       <c r="E100" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F100" t="s">
         <v>510</v>
@@ -6842,7 +6845,7 @@
         <v>1126</v>
       </c>
       <c r="I100" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
@@ -6856,7 +6859,7 @@
         <v>105</v>
       </c>
       <c r="E101" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F101" t="s">
         <v>511</v>
@@ -6868,7 +6871,7 @@
         <v>1126</v>
       </c>
       <c r="I101" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
@@ -6882,7 +6885,7 @@
         <v>106</v>
       </c>
       <c r="E102" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F102" t="s">
         <v>512</v>
@@ -6891,10 +6894,10 @@
         <v>902</v>
       </c>
       <c r="H102" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="I102" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
@@ -6908,7 +6911,7 @@
         <v>107</v>
       </c>
       <c r="E103" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F103" t="s">
         <v>513</v>
@@ -6917,10 +6920,10 @@
         <v>903</v>
       </c>
       <c r="H103" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="I103" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
@@ -6934,7 +6937,7 @@
         <v>108</v>
       </c>
       <c r="E104" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F104" t="s">
         <v>514</v>
@@ -6946,7 +6949,7 @@
         <v>1127</v>
       </c>
       <c r="I104" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
@@ -6960,7 +6963,7 @@
         <v>109</v>
       </c>
       <c r="E105" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F105" t="s">
         <v>515</v>
@@ -6972,7 +6975,7 @@
         <v>1127</v>
       </c>
       <c r="I105" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
@@ -6986,7 +6989,7 @@
         <v>110</v>
       </c>
       <c r="E106" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F106" t="s">
         <v>516</v>
@@ -6998,7 +7001,7 @@
         <v>1127</v>
       </c>
       <c r="I106" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
@@ -7012,7 +7015,7 @@
         <v>111</v>
       </c>
       <c r="E107" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F107" t="s">
         <v>517</v>
@@ -7024,7 +7027,7 @@
         <v>1127</v>
       </c>
       <c r="I107" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
@@ -7038,7 +7041,7 @@
         <v>112</v>
       </c>
       <c r="E108" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F108" t="s">
         <v>518</v>
@@ -7047,10 +7050,10 @@
         <v>908</v>
       </c>
       <c r="H108" t="s">
-        <v>1222</v>
+        <v>1260</v>
       </c>
       <c r="I108" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
@@ -7064,7 +7067,7 @@
         <v>113</v>
       </c>
       <c r="E109" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F109" t="s">
         <v>519</v>
@@ -7073,10 +7076,10 @@
         <v>817</v>
       </c>
       <c r="H109" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="I109" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
@@ -7090,7 +7093,7 @@
         <v>114</v>
       </c>
       <c r="E110" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F110" t="s">
         <v>520</v>
@@ -7102,7 +7105,7 @@
         <v>1128</v>
       </c>
       <c r="I110" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
@@ -7116,7 +7119,7 @@
         <v>115</v>
       </c>
       <c r="E111" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F111" t="s">
         <v>521</v>
@@ -7128,7 +7131,7 @@
         <v>1128</v>
       </c>
       <c r="I111" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
@@ -7142,7 +7145,7 @@
         <v>116</v>
       </c>
       <c r="E112" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F112" t="s">
         <v>522</v>
@@ -7154,7 +7157,7 @@
         <v>1129</v>
       </c>
       <c r="I112" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
@@ -7168,7 +7171,7 @@
         <v>117</v>
       </c>
       <c r="E113" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F113" t="s">
         <v>523</v>
@@ -7177,10 +7180,10 @@
         <v>912</v>
       </c>
       <c r="H113" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
       <c r="I113" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
@@ -7194,7 +7197,7 @@
         <v>118</v>
       </c>
       <c r="E114" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F114" t="s">
         <v>524</v>
@@ -7203,10 +7206,10 @@
         <v>913</v>
       </c>
       <c r="H114" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
       <c r="I114" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
@@ -7220,7 +7223,7 @@
         <v>119</v>
       </c>
       <c r="E115" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F115" t="s">
         <v>525</v>
@@ -7229,10 +7232,10 @@
         <v>914</v>
       </c>
       <c r="H115" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
       <c r="I115" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
@@ -7246,7 +7249,7 @@
         <v>120</v>
       </c>
       <c r="E116" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F116" t="s">
         <v>526</v>
@@ -7255,10 +7258,10 @@
         <v>915</v>
       </c>
       <c r="H116" t="s">
-        <v>1235</v>
+        <v>1259</v>
       </c>
       <c r="I116" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
@@ -7272,7 +7275,7 @@
         <v>121</v>
       </c>
       <c r="E117" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F117" t="s">
         <v>527</v>
@@ -7281,10 +7284,10 @@
         <v>915</v>
       </c>
       <c r="H117" t="s">
-        <v>1235</v>
+        <v>1259</v>
       </c>
       <c r="I117" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
@@ -7298,7 +7301,7 @@
         <v>122</v>
       </c>
       <c r="E118" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F118" t="s">
         <v>528</v>
@@ -7307,10 +7310,10 @@
         <v>915</v>
       </c>
       <c r="H118" t="s">
-        <v>1235</v>
+        <v>1259</v>
       </c>
       <c r="I118" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
@@ -7324,7 +7327,7 @@
         <v>123</v>
       </c>
       <c r="E119" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F119" t="s">
         <v>529</v>
@@ -7333,10 +7336,10 @@
         <v>916</v>
       </c>
       <c r="H119" t="s">
-        <v>1131</v>
+        <v>1262</v>
       </c>
       <c r="I119" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
@@ -7350,7 +7353,7 @@
         <v>124</v>
       </c>
       <c r="E120" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F120" t="s">
         <v>530</v>
@@ -7359,10 +7362,10 @@
         <v>917</v>
       </c>
       <c r="H120" t="s">
-        <v>1131</v>
+        <v>1262</v>
       </c>
       <c r="I120" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
@@ -7376,7 +7379,7 @@
         <v>125</v>
       </c>
       <c r="E121" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F121" t="s">
         <v>531</v>
@@ -7385,10 +7388,10 @@
         <v>918</v>
       </c>
       <c r="H121" t="s">
-        <v>1131</v>
+        <v>1262</v>
       </c>
       <c r="I121" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
@@ -7402,7 +7405,7 @@
         <v>126</v>
       </c>
       <c r="E122" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F122" t="s">
         <v>532</v>
@@ -7411,10 +7414,10 @@
         <v>915</v>
       </c>
       <c r="H122" t="s">
-        <v>1236</v>
+        <v>1229</v>
       </c>
       <c r="I122" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
@@ -7428,7 +7431,7 @@
         <v>127</v>
       </c>
       <c r="E123" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F123" t="s">
         <v>533</v>
@@ -7437,10 +7440,10 @@
         <v>817</v>
       </c>
       <c r="H123" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="I123" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
@@ -7454,7 +7457,7 @@
         <v>128</v>
       </c>
       <c r="E124" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F124" t="s">
         <v>534</v>
@@ -7463,10 +7466,10 @@
         <v>919</v>
       </c>
       <c r="H124" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="I124" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
@@ -7480,7 +7483,7 @@
         <v>129</v>
       </c>
       <c r="E125" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F125" t="s">
         <v>535</v>
@@ -7489,10 +7492,10 @@
         <v>920</v>
       </c>
       <c r="H125" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="I125" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
@@ -7506,7 +7509,7 @@
         <v>130</v>
       </c>
       <c r="E126" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F126" t="s">
         <v>536</v>
@@ -7515,10 +7518,10 @@
         <v>921</v>
       </c>
       <c r="H126" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="I126" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
@@ -7532,7 +7535,7 @@
         <v>131</v>
       </c>
       <c r="E127" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F127" t="s">
         <v>537</v>
@@ -7541,10 +7544,10 @@
         <v>921</v>
       </c>
       <c r="H127" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="I127" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
@@ -7558,7 +7561,7 @@
         <v>132</v>
       </c>
       <c r="E128" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F128" t="s">
         <v>538</v>
@@ -7567,10 +7570,10 @@
         <v>922</v>
       </c>
       <c r="H128" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="I128" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
@@ -7584,7 +7587,7 @@
         <v>133</v>
       </c>
       <c r="E129" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F129" t="s">
         <v>539</v>
@@ -7593,10 +7596,10 @@
         <v>884</v>
       </c>
       <c r="H129" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="I129" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.3">
@@ -7610,7 +7613,7 @@
         <v>134</v>
       </c>
       <c r="E130" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F130" t="s">
         <v>540</v>
@@ -7619,10 +7622,10 @@
         <v>923</v>
       </c>
       <c r="H130" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="I130" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
@@ -7636,7 +7639,7 @@
         <v>135</v>
       </c>
       <c r="E131" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F131" t="s">
         <v>541</v>
@@ -7645,10 +7648,10 @@
         <v>924</v>
       </c>
       <c r="H131" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="I131" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
@@ -7662,7 +7665,7 @@
         <v>136</v>
       </c>
       <c r="E132" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F132" t="s">
         <v>542</v>
@@ -7671,10 +7674,10 @@
         <v>925</v>
       </c>
       <c r="H132" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="I132" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
@@ -7688,7 +7691,7 @@
         <v>137</v>
       </c>
       <c r="E133" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F133" t="s">
         <v>543</v>
@@ -7697,10 +7700,10 @@
         <v>926</v>
       </c>
       <c r="H133" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="I133" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
@@ -7714,7 +7717,7 @@
         <v>138</v>
       </c>
       <c r="E134" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F134" t="s">
         <v>544</v>
@@ -7723,10 +7726,10 @@
         <v>915</v>
       </c>
       <c r="H134" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="I134" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
@@ -7740,7 +7743,7 @@
         <v>139</v>
       </c>
       <c r="E135" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F135" t="s">
         <v>545</v>
@@ -7749,10 +7752,10 @@
         <v>817</v>
       </c>
       <c r="H135" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="I135" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
@@ -7766,7 +7769,7 @@
         <v>140</v>
       </c>
       <c r="E136" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F136" t="s">
         <v>546</v>
@@ -7775,10 +7778,10 @@
         <v>927</v>
       </c>
       <c r="H136" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="I136" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
@@ -7792,7 +7795,7 @@
         <v>141</v>
       </c>
       <c r="E137" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F137" t="s">
         <v>547</v>
@@ -7801,10 +7804,10 @@
         <v>817</v>
       </c>
       <c r="H137" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="I137" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
@@ -7818,7 +7821,7 @@
         <v>142</v>
       </c>
       <c r="E138" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F138" t="s">
         <v>548</v>
@@ -7827,10 +7830,10 @@
         <v>916</v>
       </c>
       <c r="H138" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="I138" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
@@ -7844,7 +7847,7 @@
         <v>143</v>
       </c>
       <c r="E139" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F139" t="s">
         <v>549</v>
@@ -7853,10 +7856,10 @@
         <v>928</v>
       </c>
       <c r="H139" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="I139" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
@@ -7870,7 +7873,7 @@
         <v>144</v>
       </c>
       <c r="E140" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F140" t="s">
         <v>550</v>
@@ -7879,10 +7882,10 @@
         <v>915</v>
       </c>
       <c r="H140" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="I140" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
@@ -7896,7 +7899,7 @@
         <v>145</v>
       </c>
       <c r="E141" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F141" t="s">
         <v>551</v>
@@ -7908,7 +7911,7 @@
         <v>1130</v>
       </c>
       <c r="I141" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
@@ -7922,7 +7925,7 @@
         <v>146</v>
       </c>
       <c r="E142" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F142" t="s">
         <v>552</v>
@@ -7931,10 +7934,10 @@
         <v>817</v>
       </c>
       <c r="H142" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="I142" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
@@ -7948,7 +7951,7 @@
         <v>147</v>
       </c>
       <c r="E143" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F143" t="s">
         <v>553</v>
@@ -7957,10 +7960,10 @@
         <v>820</v>
       </c>
       <c r="H143" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="I143" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
@@ -7974,7 +7977,7 @@
         <v>148</v>
       </c>
       <c r="E144" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F144" t="s">
         <v>554</v>
@@ -7983,10 +7986,10 @@
         <v>929</v>
       </c>
       <c r="H144" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="I144" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
@@ -8000,7 +8003,7 @@
         <v>149</v>
       </c>
       <c r="E145" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F145" t="s">
         <v>555</v>
@@ -8009,10 +8012,10 @@
         <v>930</v>
       </c>
       <c r="H145" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="I145" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
@@ -8026,7 +8029,7 @@
         <v>150</v>
       </c>
       <c r="E146" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F146" t="s">
         <v>556</v>
@@ -8035,10 +8038,10 @@
         <v>931</v>
       </c>
       <c r="H146" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="I146" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
@@ -8052,7 +8055,7 @@
         <v>151</v>
       </c>
       <c r="E147" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F147" t="s">
         <v>557</v>
@@ -8061,10 +8064,10 @@
         <v>932</v>
       </c>
       <c r="H147" t="s">
-        <v>1246</v>
+        <v>1238</v>
       </c>
       <c r="I147" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
@@ -8078,7 +8081,7 @@
         <v>152</v>
       </c>
       <c r="E148" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F148" t="s">
         <v>558</v>
@@ -8087,10 +8090,10 @@
         <v>933</v>
       </c>
       <c r="H148" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="I148" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
@@ -8104,7 +8107,7 @@
         <v>153</v>
       </c>
       <c r="E149" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F149" t="s">
         <v>559</v>
@@ -8113,10 +8116,10 @@
         <v>934</v>
       </c>
       <c r="H149" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="I149" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
@@ -8130,7 +8133,7 @@
         <v>154</v>
       </c>
       <c r="E150" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F150" t="s">
         <v>560</v>
@@ -8139,10 +8142,10 @@
         <v>935</v>
       </c>
       <c r="H150" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="I150" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
@@ -8156,7 +8159,7 @@
         <v>155</v>
       </c>
       <c r="E151" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F151" t="s">
         <v>561</v>
@@ -8164,11 +8167,11 @@
       <c r="G151" t="s">
         <v>936</v>
       </c>
-      <c r="H151" t="s">
-        <v>1237</v>
+      <c r="H151" s="1" t="s">
+        <v>1258</v>
       </c>
       <c r="I151" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
@@ -8182,7 +8185,7 @@
         <v>156</v>
       </c>
       <c r="E152" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F152" t="s">
         <v>562</v>
@@ -8190,11 +8193,11 @@
       <c r="G152" t="s">
         <v>937</v>
       </c>
-      <c r="H152" t="s">
-        <v>1237</v>
+      <c r="H152" s="1" t="s">
+        <v>1258</v>
       </c>
       <c r="I152" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.3">
@@ -8208,7 +8211,7 @@
         <v>157</v>
       </c>
       <c r="E153" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F153" t="s">
         <v>563</v>
@@ -8217,10 +8220,10 @@
         <v>938</v>
       </c>
       <c r="H153" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="I153" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
@@ -8234,7 +8237,7 @@
         <v>158</v>
       </c>
       <c r="E154" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F154" t="s">
         <v>564</v>
@@ -8243,10 +8246,10 @@
         <v>939</v>
       </c>
       <c r="H154" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="I154" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
@@ -8260,7 +8263,7 @@
         <v>159</v>
       </c>
       <c r="E155" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F155" t="s">
         <v>565</v>
@@ -8269,10 +8272,10 @@
         <v>817</v>
       </c>
       <c r="H155" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="I155" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
@@ -8286,7 +8289,7 @@
         <v>160</v>
       </c>
       <c r="E156" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F156" t="s">
         <v>566</v>
@@ -8295,10 +8298,10 @@
         <v>940</v>
       </c>
       <c r="H156" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="I156" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
@@ -8312,7 +8315,7 @@
         <v>161</v>
       </c>
       <c r="E157" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F157" t="s">
         <v>567</v>
@@ -8321,10 +8324,10 @@
         <v>941</v>
       </c>
       <c r="H157" t="s">
-        <v>1145</v>
+        <v>1257</v>
       </c>
       <c r="I157" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
@@ -8338,7 +8341,7 @@
         <v>162</v>
       </c>
       <c r="E158" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F158" t="s">
         <v>568</v>
@@ -8347,10 +8350,10 @@
         <v>942</v>
       </c>
       <c r="H158" t="s">
-        <v>1145</v>
+        <v>1257</v>
       </c>
       <c r="I158" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
@@ -8364,7 +8367,7 @@
         <v>163</v>
       </c>
       <c r="E159" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F159" t="s">
         <v>569</v>
@@ -8373,10 +8376,10 @@
         <v>915</v>
       </c>
       <c r="H159" t="s">
-        <v>1145</v>
+        <v>1257</v>
       </c>
       <c r="I159" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
@@ -8390,7 +8393,7 @@
         <v>164</v>
       </c>
       <c r="E160" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F160" t="s">
         <v>570</v>
@@ -8399,10 +8402,10 @@
         <v>943</v>
       </c>
       <c r="H160" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="I160" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
@@ -8416,7 +8419,7 @@
         <v>165</v>
       </c>
       <c r="E161" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F161" t="s">
         <v>571</v>
@@ -8425,10 +8428,10 @@
         <v>944</v>
       </c>
       <c r="H161" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="I161" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
@@ -8442,7 +8445,7 @@
         <v>166</v>
       </c>
       <c r="E162" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F162" t="s">
         <v>572</v>
@@ -8451,10 +8454,10 @@
         <v>861</v>
       </c>
       <c r="H162" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="I162" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
@@ -8468,7 +8471,7 @@
         <v>167</v>
       </c>
       <c r="E163" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F163" t="s">
         <v>573</v>
@@ -8477,10 +8480,10 @@
         <v>945</v>
       </c>
       <c r="H163" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="I163" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
@@ -8494,7 +8497,7 @@
         <v>168</v>
       </c>
       <c r="E164" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F164" t="s">
         <v>574</v>
@@ -8503,10 +8506,10 @@
         <v>946</v>
       </c>
       <c r="H164" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="I164" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
@@ -8520,7 +8523,7 @@
         <v>169</v>
       </c>
       <c r="E165" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F165" t="s">
         <v>575</v>
@@ -8529,10 +8532,10 @@
         <v>881</v>
       </c>
       <c r="H165" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="I165" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
@@ -8546,7 +8549,7 @@
         <v>170</v>
       </c>
       <c r="E166" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F166" t="s">
         <v>576</v>
@@ -8555,10 +8558,10 @@
         <v>915</v>
       </c>
       <c r="H166" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="I166" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
@@ -8572,7 +8575,7 @@
         <v>171</v>
       </c>
       <c r="E167" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F167" t="s">
         <v>577</v>
@@ -8581,10 +8584,10 @@
         <v>947</v>
       </c>
       <c r="H167" t="s">
-        <v>1264</v>
+        <v>1256</v>
       </c>
       <c r="I167" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
@@ -8598,7 +8601,7 @@
         <v>172</v>
       </c>
       <c r="E168" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F168" t="s">
         <v>578</v>
@@ -8607,10 +8610,10 @@
         <v>832</v>
       </c>
       <c r="H168" t="s">
-        <v>1264</v>
+        <v>1256</v>
       </c>
       <c r="I168" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
@@ -8624,7 +8627,7 @@
         <v>173</v>
       </c>
       <c r="E169" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F169" t="s">
         <v>579</v>
@@ -8633,10 +8636,10 @@
         <v>948</v>
       </c>
       <c r="H169" t="s">
-        <v>1264</v>
+        <v>1256</v>
       </c>
       <c r="I169" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
@@ -8650,7 +8653,7 @@
         <v>174</v>
       </c>
       <c r="E170" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F170" t="s">
         <v>580</v>
@@ -8659,10 +8662,10 @@
         <v>817</v>
       </c>
       <c r="H170" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="I170" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
@@ -8676,7 +8679,7 @@
         <v>175</v>
       </c>
       <c r="E171" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F171" t="s">
         <v>581</v>
@@ -8685,10 +8688,10 @@
         <v>949</v>
       </c>
       <c r="H171" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="I171" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
@@ -8702,7 +8705,7 @@
         <v>176</v>
       </c>
       <c r="E172" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F172" t="s">
         <v>582</v>
@@ -8711,10 +8714,10 @@
         <v>950</v>
       </c>
       <c r="H172" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="I172" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
@@ -8728,7 +8731,7 @@
         <v>177</v>
       </c>
       <c r="E173" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F173" t="s">
         <v>583</v>
@@ -8737,10 +8740,10 @@
         <v>951</v>
       </c>
       <c r="H173" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="I173" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
@@ -8754,7 +8757,7 @@
         <v>178</v>
       </c>
       <c r="E174" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F174" t="s">
         <v>584</v>
@@ -8763,10 +8766,10 @@
         <v>952</v>
       </c>
       <c r="H174" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="I174" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
@@ -8780,7 +8783,7 @@
         <v>179</v>
       </c>
       <c r="E175" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F175" t="s">
         <v>585</v>
@@ -8789,10 +8792,10 @@
         <v>953</v>
       </c>
       <c r="H175" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="I175" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
@@ -8806,7 +8809,7 @@
         <v>180</v>
       </c>
       <c r="E176" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F176" t="s">
         <v>586</v>
@@ -8815,10 +8818,10 @@
         <v>954</v>
       </c>
       <c r="H176" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="I176" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
@@ -8832,7 +8835,7 @@
         <v>181</v>
       </c>
       <c r="E177" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F177" t="s">
         <v>587</v>
@@ -8841,10 +8844,10 @@
         <v>955</v>
       </c>
       <c r="H177" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="I177" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
@@ -8858,7 +8861,7 @@
         <v>182</v>
       </c>
       <c r="E178" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="F178" t="s">
         <v>588</v>
@@ -8867,10 +8870,10 @@
         <v>816</v>
       </c>
       <c r="H178" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="I178" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
@@ -8884,7 +8887,7 @@
         <v>183</v>
       </c>
       <c r="E179" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="F179" t="s">
         <v>589</v>
@@ -8893,13 +8896,13 @@
         <v>956</v>
       </c>
       <c r="H179" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="I179" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="J179" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
@@ -8913,7 +8916,7 @@
         <v>184</v>
       </c>
       <c r="E180" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="F180" t="s">
         <v>590</v>
@@ -8922,13 +8925,13 @@
         <v>957</v>
       </c>
       <c r="H180" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="I180" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="J180" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.3">
@@ -8942,7 +8945,7 @@
         <v>185</v>
       </c>
       <c r="E181" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="F181" t="s">
         <v>591</v>
@@ -8951,13 +8954,13 @@
         <v>958</v>
       </c>
       <c r="H181" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="I181" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="J181" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.3">
@@ -8971,7 +8974,7 @@
         <v>186</v>
       </c>
       <c r="E182" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="F182" t="s">
         <v>485</v>
@@ -8980,13 +8983,13 @@
         <v>959</v>
       </c>
       <c r="H182" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="I182" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="J182" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
@@ -9000,7 +9003,7 @@
         <v>187</v>
       </c>
       <c r="E183" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="F183" t="s">
         <v>592</v>
@@ -9009,13 +9012,13 @@
         <v>960</v>
       </c>
       <c r="H183" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="I183" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="J183" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
@@ -9029,7 +9032,7 @@
         <v>188</v>
       </c>
       <c r="E184" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="F184" t="s">
         <v>593</v>
@@ -9038,13 +9041,13 @@
         <v>828</v>
       </c>
       <c r="H184" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="I184" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="J184" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
@@ -9058,7 +9061,7 @@
         <v>189</v>
       </c>
       <c r="E185" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="F185" t="s">
         <v>594</v>
@@ -9067,13 +9070,13 @@
         <v>961</v>
       </c>
       <c r="H185" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="I185" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="J185" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
@@ -9087,7 +9090,7 @@
         <v>190</v>
       </c>
       <c r="E186" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="F186" t="s">
         <v>595</v>
@@ -9096,13 +9099,13 @@
         <v>881</v>
       </c>
       <c r="H186" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="I186" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="J186" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
@@ -9116,7 +9119,7 @@
         <v>191</v>
       </c>
       <c r="E187" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="F187" t="s">
         <v>596</v>
@@ -9125,10 +9128,10 @@
         <v>962</v>
       </c>
       <c r="H187" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="I187" t="s">
-        <v>1249</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.3">
@@ -9142,7 +9145,7 @@
         <v>192</v>
       </c>
       <c r="E188" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="F188" t="s">
         <v>597</v>
@@ -9151,10 +9154,10 @@
         <v>963</v>
       </c>
       <c r="H188" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="I188" t="s">
-        <v>1249</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
@@ -9168,7 +9171,7 @@
         <v>193</v>
       </c>
       <c r="E189" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="F189" t="s">
         <v>504</v>
@@ -9177,10 +9180,10 @@
         <v>957</v>
       </c>
       <c r="H189" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="I189" t="s">
-        <v>1249</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
@@ -9194,7 +9197,7 @@
         <v>194</v>
       </c>
       <c r="E190" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="F190" t="s">
         <v>598</v>
@@ -9203,10 +9206,10 @@
         <v>964</v>
       </c>
       <c r="H190" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="I190" t="s">
-        <v>1249</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
@@ -9220,7 +9223,7 @@
         <v>195</v>
       </c>
       <c r="E191" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="F191" t="s">
         <v>599</v>
@@ -9229,10 +9232,10 @@
         <v>929</v>
       </c>
       <c r="H191" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="I191" t="s">
-        <v>1249</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
@@ -9246,7 +9249,7 @@
         <v>196</v>
       </c>
       <c r="E192" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="F192" t="s">
         <v>600</v>
@@ -9255,10 +9258,10 @@
         <v>881</v>
       </c>
       <c r="H192" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="I192" t="s">
-        <v>1249</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
@@ -9272,7 +9275,7 @@
         <v>197</v>
       </c>
       <c r="E193" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="F193" t="s">
         <v>601</v>
@@ -9281,10 +9284,10 @@
         <v>965</v>
       </c>
       <c r="H193" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="I193" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
@@ -9298,7 +9301,7 @@
         <v>198</v>
       </c>
       <c r="E194" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="F194" t="s">
         <v>602</v>
@@ -9307,10 +9310,10 @@
         <v>966</v>
       </c>
       <c r="H194" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="I194" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
@@ -9324,7 +9327,7 @@
         <v>199</v>
       </c>
       <c r="E195" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="F195" t="s">
         <v>603</v>
@@ -9333,10 +9336,10 @@
         <v>967</v>
       </c>
       <c r="H195" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="I195" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
@@ -9350,7 +9353,7 @@
         <v>200</v>
       </c>
       <c r="E196" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="F196" t="s">
         <v>604</v>
@@ -9359,10 +9362,10 @@
         <v>968</v>
       </c>
       <c r="H196" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="I196" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
@@ -9376,7 +9379,7 @@
         <v>201</v>
       </c>
       <c r="E197" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="F197" t="s">
         <v>605</v>
@@ -9385,10 +9388,10 @@
         <v>969</v>
       </c>
       <c r="H197" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="I197" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
@@ -9402,7 +9405,7 @@
         <v>202</v>
       </c>
       <c r="E198" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="F198" t="s">
         <v>606</v>
@@ -9411,10 +9414,10 @@
         <v>970</v>
       </c>
       <c r="H198" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="I198" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
@@ -9428,7 +9431,7 @@
         <v>203</v>
       </c>
       <c r="E199" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="F199" t="s">
         <v>607</v>
@@ -9437,10 +9440,10 @@
         <v>971</v>
       </c>
       <c r="H199" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="I199" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
@@ -9454,7 +9457,7 @@
         <v>204</v>
       </c>
       <c r="E200" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="F200" t="s">
         <v>608</v>
@@ -9463,10 +9466,10 @@
         <v>972</v>
       </c>
       <c r="H200" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="I200" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
@@ -9480,7 +9483,7 @@
         <v>205</v>
       </c>
       <c r="E201" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="F201" t="s">
         <v>609</v>
@@ -9489,10 +9492,10 @@
         <v>973</v>
       </c>
       <c r="H201" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="I201" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
@@ -9506,7 +9509,7 @@
         <v>206</v>
       </c>
       <c r="E202" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="F202" t="s">
         <v>610</v>
@@ -9515,10 +9518,10 @@
         <v>957</v>
       </c>
       <c r="H202" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="I202" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
@@ -9532,7 +9535,7 @@
         <v>207</v>
       </c>
       <c r="E203" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="F203" t="s">
         <v>611</v>
@@ -9541,10 +9544,10 @@
         <v>974</v>
       </c>
       <c r="H203" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="I203" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
@@ -9558,7 +9561,7 @@
         <v>208</v>
       </c>
       <c r="E204" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="F204" t="s">
         <v>612</v>
@@ -9567,10 +9570,10 @@
         <v>975</v>
       </c>
       <c r="H204" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="I204" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
@@ -9584,7 +9587,7 @@
         <v>209</v>
       </c>
       <c r="E205" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="F205" t="s">
         <v>613</v>
@@ -9593,10 +9596,10 @@
         <v>976</v>
       </c>
       <c r="H205" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="I205" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
@@ -9610,7 +9613,7 @@
         <v>210</v>
       </c>
       <c r="E206" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="F206" t="s">
         <v>614</v>
@@ -9619,10 +9622,10 @@
         <v>977</v>
       </c>
       <c r="H206" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="I206" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
@@ -9636,7 +9639,7 @@
         <v>211</v>
       </c>
       <c r="E207" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="F207" t="s">
         <v>615</v>
@@ -9645,10 +9648,10 @@
         <v>978</v>
       </c>
       <c r="H207" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="I207" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
@@ -9662,7 +9665,7 @@
         <v>212</v>
       </c>
       <c r="E208" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F208" t="s">
         <v>616</v>
@@ -9671,10 +9674,10 @@
         <v>979</v>
       </c>
       <c r="H208" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="I208" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
@@ -9688,7 +9691,7 @@
         <v>213</v>
       </c>
       <c r="E209" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F209" t="s">
         <v>617</v>
@@ -9697,10 +9700,10 @@
         <v>980</v>
       </c>
       <c r="H209" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="I209" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
@@ -9714,7 +9717,7 @@
         <v>214</v>
       </c>
       <c r="E210" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F210" t="s">
         <v>618</v>
@@ -9723,10 +9726,10 @@
         <v>981</v>
       </c>
       <c r="H210" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="I210" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
@@ -9740,7 +9743,7 @@
         <v>215</v>
       </c>
       <c r="E211" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F211" t="s">
         <v>619</v>
@@ -9749,10 +9752,10 @@
         <v>982</v>
       </c>
       <c r="H211" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="I211" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
@@ -9766,7 +9769,7 @@
         <v>216</v>
       </c>
       <c r="E212" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F212" t="s">
         <v>620</v>
@@ -9775,10 +9778,10 @@
         <v>983</v>
       </c>
       <c r="H212" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="I212" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
@@ -9792,7 +9795,7 @@
         <v>217</v>
       </c>
       <c r="E213" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F213" t="s">
         <v>621</v>
@@ -9801,10 +9804,10 @@
         <v>984</v>
       </c>
       <c r="H213" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="I213" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
@@ -9818,7 +9821,7 @@
         <v>218</v>
       </c>
       <c r="E214" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F214" t="s">
         <v>622</v>
@@ -9827,10 +9830,10 @@
         <v>985</v>
       </c>
       <c r="H214" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="I214" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
@@ -9844,7 +9847,7 @@
         <v>219</v>
       </c>
       <c r="E215" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F215" t="s">
         <v>623</v>
@@ -9853,10 +9856,10 @@
         <v>986</v>
       </c>
       <c r="H215" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="I215" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
@@ -9870,7 +9873,7 @@
         <v>220</v>
       </c>
       <c r="E216" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F216" t="s">
         <v>624</v>
@@ -9879,10 +9882,10 @@
         <v>987</v>
       </c>
       <c r="H216" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="I216" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
@@ -9896,7 +9899,7 @@
         <v>221</v>
       </c>
       <c r="E217" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F217" t="s">
         <v>625</v>
@@ -9905,10 +9908,10 @@
         <v>988</v>
       </c>
       <c r="H217" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="I217" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
@@ -9922,7 +9925,7 @@
         <v>222</v>
       </c>
       <c r="E218" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F218" t="s">
         <v>626</v>
@@ -9931,10 +9934,10 @@
         <v>989</v>
       </c>
       <c r="H218" t="s">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="I218" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
@@ -9948,7 +9951,7 @@
         <v>223</v>
       </c>
       <c r="E219" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F219" t="s">
         <v>627</v>
@@ -9957,10 +9960,10 @@
         <v>990</v>
       </c>
       <c r="H219" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="I219" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
@@ -9974,7 +9977,7 @@
         <v>224</v>
       </c>
       <c r="E220" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F220" t="s">
         <v>628</v>
@@ -9983,10 +9986,10 @@
         <v>991</v>
       </c>
       <c r="H220" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="I220" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
@@ -10000,7 +10003,7 @@
         <v>225</v>
       </c>
       <c r="E221" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F221" t="s">
         <v>629</v>
@@ -10009,10 +10012,10 @@
         <v>919</v>
       </c>
       <c r="H221" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="I221" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
@@ -10026,7 +10029,7 @@
         <v>226</v>
       </c>
       <c r="E222" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F222" t="s">
         <v>630</v>
@@ -10035,10 +10038,10 @@
         <v>992</v>
       </c>
       <c r="H222" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="I222" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
@@ -10052,7 +10055,7 @@
         <v>227</v>
       </c>
       <c r="E223" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F223" t="s">
         <v>631</v>
@@ -10061,10 +10064,10 @@
         <v>861</v>
       </c>
       <c r="H223" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="I223" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
@@ -10078,7 +10081,7 @@
         <v>228</v>
       </c>
       <c r="E224" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F224" t="s">
         <v>632</v>
@@ -10087,10 +10090,10 @@
         <v>993</v>
       </c>
       <c r="H224" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="I224" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
@@ -10104,7 +10107,7 @@
         <v>229</v>
       </c>
       <c r="E225" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F225" t="s">
         <v>633</v>
@@ -10113,10 +10116,10 @@
         <v>994</v>
       </c>
       <c r="H225" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="I225" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
@@ -10130,7 +10133,7 @@
         <v>230</v>
       </c>
       <c r="E226" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F226" t="s">
         <v>634</v>
@@ -10139,10 +10142,10 @@
         <v>995</v>
       </c>
       <c r="H226" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="I226" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
@@ -10156,7 +10159,7 @@
         <v>231</v>
       </c>
       <c r="E227" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F227" t="s">
         <v>635</v>
@@ -10165,10 +10168,10 @@
         <v>996</v>
       </c>
       <c r="H227" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="I227" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
@@ -10182,7 +10185,7 @@
         <v>232</v>
       </c>
       <c r="E228" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F228" t="s">
         <v>636</v>
@@ -10191,10 +10194,10 @@
         <v>997</v>
       </c>
       <c r="H228" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="I228" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
@@ -10208,7 +10211,7 @@
         <v>233</v>
       </c>
       <c r="E229" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F229" t="s">
         <v>637</v>
@@ -10217,10 +10220,10 @@
         <v>998</v>
       </c>
       <c r="H229" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="I229" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -10234,7 +10237,7 @@
         <v>234</v>
       </c>
       <c r="E230" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F230" t="s">
         <v>638</v>
@@ -10243,10 +10246,10 @@
         <v>999</v>
       </c>
       <c r="H230" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="I230" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
@@ -10260,7 +10263,7 @@
         <v>235</v>
       </c>
       <c r="E231" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F231" t="s">
         <v>639</v>
@@ -10272,7 +10275,7 @@
         <v>1102</v>
       </c>
       <c r="I231" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
@@ -10286,7 +10289,7 @@
         <v>236</v>
       </c>
       <c r="E232" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F232" t="s">
         <v>640</v>
@@ -10295,13 +10298,13 @@
         <v>1000</v>
       </c>
       <c r="H232" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="I232" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="J232" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
@@ -10315,7 +10318,7 @@
         <v>237</v>
       </c>
       <c r="E233" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F233" t="s">
         <v>641</v>
@@ -10324,10 +10327,10 @@
         <v>1001</v>
       </c>
       <c r="H233" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="I233" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
@@ -10341,7 +10344,7 @@
         <v>238</v>
       </c>
       <c r="E234" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F234" t="s">
         <v>642</v>
@@ -10350,10 +10353,10 @@
         <v>1001</v>
       </c>
       <c r="H234" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="I234" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
@@ -10367,7 +10370,7 @@
         <v>239</v>
       </c>
       <c r="E235" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F235" t="s">
         <v>643</v>
@@ -10376,13 +10379,13 @@
         <v>1002</v>
       </c>
       <c r="H235" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="I235" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="J235" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
@@ -10396,7 +10399,7 @@
         <v>240</v>
       </c>
       <c r="E236" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F236" t="s">
         <v>644</v>
@@ -10405,10 +10408,10 @@
         <v>1003</v>
       </c>
       <c r="H236" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="I236" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
@@ -10422,7 +10425,7 @@
         <v>241</v>
       </c>
       <c r="E237" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F237" t="s">
         <v>645</v>
@@ -10431,10 +10434,10 @@
         <v>1004</v>
       </c>
       <c r="H237" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="I237" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
@@ -10448,7 +10451,7 @@
         <v>242</v>
       </c>
       <c r="E238" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F238" t="s">
         <v>646</v>
@@ -10457,10 +10460,10 @@
         <v>1005</v>
       </c>
       <c r="H238" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="I238" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
@@ -10474,7 +10477,7 @@
         <v>243</v>
       </c>
       <c r="E239" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F239" t="s">
         <v>647</v>
@@ -10483,10 +10486,10 @@
         <v>1006</v>
       </c>
       <c r="H239" t="s">
+        <v>1235</v>
+      </c>
+      <c r="I239" t="s">
         <v>1243</v>
-      </c>
-      <c r="I239" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
@@ -10500,7 +10503,7 @@
         <v>244</v>
       </c>
       <c r="E240" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F240" t="s">
         <v>648</v>
@@ -10509,13 +10512,13 @@
         <v>915</v>
       </c>
       <c r="H240" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="I240" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="J240" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
@@ -10529,7 +10532,7 @@
         <v>245</v>
       </c>
       <c r="E241" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F241" t="s">
         <v>649</v>
@@ -10538,10 +10541,10 @@
         <v>1007</v>
       </c>
       <c r="H241" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="I241" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.3">
@@ -10555,7 +10558,7 @@
         <v>246</v>
       </c>
       <c r="E242" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F242" t="s">
         <v>650</v>
@@ -10564,10 +10567,10 @@
         <v>929</v>
       </c>
       <c r="H242" t="s">
-        <v>1239</v>
+        <v>1231</v>
       </c>
       <c r="I242" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.3">
@@ -10581,7 +10584,7 @@
         <v>247</v>
       </c>
       <c r="E243" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F243" t="s">
         <v>651</v>
@@ -10590,10 +10593,10 @@
         <v>1008</v>
       </c>
       <c r="H243" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="I243" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
@@ -10607,7 +10610,7 @@
         <v>248</v>
       </c>
       <c r="E244" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F244" t="s">
         <v>652</v>
@@ -10616,10 +10619,10 @@
         <v>1009</v>
       </c>
       <c r="H244" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="I244" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.3">
@@ -10633,7 +10636,7 @@
         <v>249</v>
       </c>
       <c r="E245" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F245" t="s">
         <v>653</v>
@@ -10642,10 +10645,10 @@
         <v>1010</v>
       </c>
       <c r="H245" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="I245" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
@@ -10659,7 +10662,7 @@
         <v>250</v>
       </c>
       <c r="E246" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F246" t="s">
         <v>654</v>
@@ -10668,13 +10671,13 @@
         <v>1011</v>
       </c>
       <c r="H246" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="I246" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="J246" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
@@ -10688,7 +10691,7 @@
         <v>251</v>
       </c>
       <c r="E247" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F247" t="s">
         <v>655</v>
@@ -10700,7 +10703,7 @@
         <v>1114</v>
       </c>
       <c r="I247" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.3">
@@ -10714,7 +10717,7 @@
         <v>252</v>
       </c>
       <c r="E248" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F248" t="s">
         <v>656</v>
@@ -10726,7 +10729,7 @@
         <v>1114</v>
       </c>
       <c r="I248" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.3">
@@ -10740,7 +10743,7 @@
         <v>253</v>
       </c>
       <c r="E249" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F249" t="s">
         <v>657</v>
@@ -10752,7 +10755,7 @@
         <v>1114</v>
       </c>
       <c r="I249" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
@@ -10766,7 +10769,7 @@
         <v>254</v>
       </c>
       <c r="E250" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F250" t="s">
         <v>658</v>
@@ -10775,10 +10778,10 @@
         <v>1015</v>
       </c>
       <c r="H250" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="I250" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.3">
@@ -10792,7 +10795,7 @@
         <v>255</v>
       </c>
       <c r="E251" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F251" t="s">
         <v>659</v>
@@ -10801,10 +10804,10 @@
         <v>817</v>
       </c>
       <c r="H251" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="I251" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
@@ -10818,7 +10821,7 @@
         <v>256</v>
       </c>
       <c r="E252" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F252" t="s">
         <v>660</v>
@@ -10827,10 +10830,10 @@
         <v>1016</v>
       </c>
       <c r="H252" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="I252" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
@@ -10844,7 +10847,7 @@
         <v>257</v>
       </c>
       <c r="E253" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F253" t="s">
         <v>661</v>
@@ -10853,10 +10856,10 @@
         <v>1017</v>
       </c>
       <c r="H253" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="I253" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
@@ -10870,7 +10873,7 @@
         <v>258</v>
       </c>
       <c r="E254" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F254" t="s">
         <v>662</v>
@@ -10879,10 +10882,10 @@
         <v>1018</v>
       </c>
       <c r="H254" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="I254" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.3">
@@ -10896,7 +10899,7 @@
         <v>259</v>
       </c>
       <c r="E255" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F255" t="s">
         <v>663</v>
@@ -10905,10 +10908,10 @@
         <v>839</v>
       </c>
       <c r="H255" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="I255" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
@@ -10922,7 +10925,7 @@
         <v>260</v>
       </c>
       <c r="E256" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F256" t="s">
         <v>664</v>
@@ -10931,10 +10934,10 @@
         <v>1019</v>
       </c>
       <c r="H256" t="s">
-        <v>1241</v>
+        <v>1233</v>
       </c>
       <c r="I256" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
@@ -10948,7 +10951,7 @@
         <v>261</v>
       </c>
       <c r="E257" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F257" t="s">
         <v>665</v>
@@ -10957,10 +10960,10 @@
         <v>1020</v>
       </c>
       <c r="H257" t="s">
-        <v>1241</v>
+        <v>1233</v>
       </c>
       <c r="I257" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
@@ -10974,7 +10977,7 @@
         <v>262</v>
       </c>
       <c r="E258" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F258" t="s">
         <v>666</v>
@@ -10983,10 +10986,10 @@
         <v>851</v>
       </c>
       <c r="H258" t="s">
-        <v>1241</v>
+        <v>1233</v>
       </c>
       <c r="I258" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
@@ -11000,7 +11003,7 @@
         <v>263</v>
       </c>
       <c r="E259" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F259" t="s">
         <v>667</v>
@@ -11009,10 +11012,10 @@
         <v>817</v>
       </c>
       <c r="H259" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="I259" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
@@ -11026,7 +11029,7 @@
         <v>264</v>
       </c>
       <c r="E260" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F260" t="s">
         <v>668</v>
@@ -11035,10 +11038,10 @@
         <v>817</v>
       </c>
       <c r="H260" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="I260" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
@@ -11052,7 +11055,7 @@
         <v>265</v>
       </c>
       <c r="E261" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F261" t="s">
         <v>669</v>
@@ -11061,10 +11064,10 @@
         <v>861</v>
       </c>
       <c r="H261" t="s">
-        <v>1240</v>
+        <v>1232</v>
       </c>
       <c r="I261" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
@@ -11078,7 +11081,7 @@
         <v>266</v>
       </c>
       <c r="E262" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F262" t="s">
         <v>670</v>
@@ -11087,10 +11090,10 @@
         <v>817</v>
       </c>
       <c r="H262" t="s">
-        <v>1240</v>
+        <v>1232</v>
       </c>
       <c r="I262" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
@@ -11104,7 +11107,7 @@
         <v>267</v>
       </c>
       <c r="E263" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F263" t="s">
         <v>671</v>
@@ -11116,7 +11119,7 @@
         <v>1114</v>
       </c>
       <c r="I263" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
@@ -11130,7 +11133,7 @@
         <v>268</v>
       </c>
       <c r="E264" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F264" t="s">
         <v>672</v>
@@ -11142,7 +11145,7 @@
         <v>1114</v>
       </c>
       <c r="I264" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.3">
@@ -11156,7 +11159,7 @@
         <v>269</v>
       </c>
       <c r="E265" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F265" t="s">
         <v>673</v>
@@ -11165,10 +11168,10 @@
         <v>1023</v>
       </c>
       <c r="H265" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="I265" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
@@ -11182,7 +11185,7 @@
         <v>270</v>
       </c>
       <c r="E266" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F266" t="s">
         <v>674</v>
@@ -11191,10 +11194,10 @@
         <v>1024</v>
       </c>
       <c r="H266" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="I266" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
@@ -11208,7 +11211,7 @@
         <v>271</v>
       </c>
       <c r="E267" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F267" t="s">
         <v>675</v>
@@ -11217,10 +11220,10 @@
         <v>911</v>
       </c>
       <c r="H267" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="I267" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
@@ -11234,7 +11237,7 @@
         <v>272</v>
       </c>
       <c r="E268" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F268" t="s">
         <v>676</v>
@@ -11243,10 +11246,10 @@
         <v>998</v>
       </c>
       <c r="H268" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="I268" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
@@ -11260,7 +11263,7 @@
         <v>273</v>
       </c>
       <c r="E269" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F269" t="s">
         <v>677</v>
@@ -11269,10 +11272,10 @@
         <v>937</v>
       </c>
       <c r="H269" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="I269" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
@@ -11289,7 +11292,7 @@
         <v>274</v>
       </c>
       <c r="E270" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F270" t="s">
         <v>678</v>
@@ -11298,10 +11301,10 @@
         <v>947</v>
       </c>
       <c r="H270" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="I270" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
@@ -11315,7 +11318,7 @@
         <v>275</v>
       </c>
       <c r="E271" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F271" t="s">
         <v>679</v>
@@ -11324,10 +11327,10 @@
         <v>1025</v>
       </c>
       <c r="H271" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="I271" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
@@ -11341,7 +11344,7 @@
         <v>276</v>
       </c>
       <c r="E272" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F272" t="s">
         <v>680</v>
@@ -11350,10 +11353,10 @@
         <v>858</v>
       </c>
       <c r="H272" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="I272" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
@@ -11367,7 +11370,7 @@
         <v>277</v>
       </c>
       <c r="E273" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F273" t="s">
         <v>681</v>
@@ -11376,10 +11379,10 @@
         <v>1020</v>
       </c>
       <c r="H273" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="I273" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
@@ -11396,7 +11399,7 @@
         <v>278</v>
       </c>
       <c r="E274" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F274" t="s">
         <v>682</v>
@@ -11405,10 +11408,10 @@
         <v>1026</v>
       </c>
       <c r="H274" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="I274" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
@@ -11422,7 +11425,7 @@
         <v>279</v>
       </c>
       <c r="E275" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F275" t="s">
         <v>683</v>
@@ -11431,10 +11434,10 @@
         <v>936</v>
       </c>
       <c r="H275" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="I275" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
@@ -11448,7 +11451,7 @@
         <v>280</v>
       </c>
       <c r="E276" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F276" t="s">
         <v>684</v>
@@ -11457,10 +11460,10 @@
         <v>1027</v>
       </c>
       <c r="H276" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="I276" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
@@ -11474,7 +11477,7 @@
         <v>281</v>
       </c>
       <c r="E277" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F277" t="s">
         <v>685</v>
@@ -11483,10 +11486,10 @@
         <v>1028</v>
       </c>
       <c r="H277" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="I277" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
@@ -11500,7 +11503,7 @@
         <v>282</v>
       </c>
       <c r="E278" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F278" t="s">
         <v>686</v>
@@ -11509,10 +11512,10 @@
         <v>832</v>
       </c>
       <c r="H278" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="I278" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
@@ -11526,7 +11529,7 @@
         <v>283</v>
       </c>
       <c r="E279" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F279" t="s">
         <v>687</v>
@@ -11535,10 +11538,10 @@
         <v>864</v>
       </c>
       <c r="H279" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="I279" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
@@ -11552,7 +11555,7 @@
         <v>284</v>
       </c>
       <c r="E280" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F280" t="s">
         <v>688</v>
@@ -11561,10 +11564,10 @@
         <v>1029</v>
       </c>
       <c r="H280" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="I280" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
@@ -11578,7 +11581,7 @@
         <v>285</v>
       </c>
       <c r="E281" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F281" t="s">
         <v>689</v>
@@ -11587,10 +11590,10 @@
         <v>1018</v>
       </c>
       <c r="H281" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="I281" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.3">
@@ -11604,7 +11607,7 @@
         <v>286</v>
       </c>
       <c r="E282" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F282" t="s">
         <v>690</v>
@@ -11613,10 +11616,10 @@
         <v>817</v>
       </c>
       <c r="H282" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="I282" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
@@ -11630,7 +11633,7 @@
         <v>287</v>
       </c>
       <c r="E283" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F283" t="s">
         <v>691</v>
@@ -11639,10 +11642,10 @@
         <v>1030</v>
       </c>
       <c r="H283" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="I283" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.3">
@@ -11656,7 +11659,7 @@
         <v>288</v>
       </c>
       <c r="E284" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F284" t="s">
         <v>692</v>
@@ -11665,10 +11668,10 @@
         <v>1031</v>
       </c>
       <c r="H284" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="I284" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.3">
@@ -11682,7 +11685,7 @@
         <v>289</v>
       </c>
       <c r="E285" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F285" t="s">
         <v>693</v>
@@ -11694,7 +11697,7 @@
         <v>1120</v>
       </c>
       <c r="I285" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.3">
@@ -11708,7 +11711,7 @@
         <v>290</v>
       </c>
       <c r="E286" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F286" t="s">
         <v>694</v>
@@ -11717,10 +11720,10 @@
         <v>828</v>
       </c>
       <c r="H286" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="I286" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.3">
@@ -11734,7 +11737,7 @@
         <v>291</v>
       </c>
       <c r="E287" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F287" t="s">
         <v>695</v>
@@ -11743,10 +11746,10 @@
         <v>860</v>
       </c>
       <c r="H287" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="I287" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.3">
@@ -11760,7 +11763,7 @@
         <v>292</v>
       </c>
       <c r="E288" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F288" t="s">
         <v>696</v>
@@ -11769,10 +11772,10 @@
         <v>1032</v>
       </c>
       <c r="H288" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="I288" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.3">
@@ -11786,7 +11789,7 @@
         <v>293</v>
       </c>
       <c r="E289" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F289" t="s">
         <v>697</v>
@@ -11795,10 +11798,10 @@
         <v>1033</v>
       </c>
       <c r="H289" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="I289" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.3">
@@ -11812,7 +11815,7 @@
         <v>294</v>
       </c>
       <c r="E290" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F290" t="s">
         <v>698</v>
@@ -11821,10 +11824,10 @@
         <v>915</v>
       </c>
       <c r="H290" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="I290" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.3">
@@ -11838,7 +11841,7 @@
         <v>295</v>
       </c>
       <c r="E291" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F291" t="s">
         <v>699</v>
@@ -11847,10 +11850,10 @@
         <v>1034</v>
       </c>
       <c r="H291" t="s">
-        <v>1242</v>
+        <v>1234</v>
       </c>
       <c r="I291" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.3">
@@ -11864,7 +11867,7 @@
         <v>296</v>
       </c>
       <c r="E292" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F292" t="s">
         <v>700</v>
@@ -11873,10 +11876,10 @@
         <v>1035</v>
       </c>
       <c r="H292" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="I292" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.3">
@@ -11890,7 +11893,7 @@
         <v>297</v>
       </c>
       <c r="E293" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F293" t="s">
         <v>701</v>
@@ -11899,10 +11902,10 @@
         <v>1036</v>
       </c>
       <c r="H293" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="I293" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.3">
@@ -11916,7 +11919,7 @@
         <v>298</v>
       </c>
       <c r="E294" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F294" t="s">
         <v>702</v>
@@ -11925,10 +11928,10 @@
         <v>1016</v>
       </c>
       <c r="H294" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="I294" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.3">
@@ -11942,7 +11945,7 @@
         <v>299</v>
       </c>
       <c r="E295" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F295" t="s">
         <v>703</v>
@@ -11951,10 +11954,10 @@
         <v>1037</v>
       </c>
       <c r="H295" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="I295" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.3">
@@ -11971,7 +11974,7 @@
         <v>300</v>
       </c>
       <c r="E296" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F296" t="s">
         <v>704</v>
@@ -11980,10 +11983,10 @@
         <v>951</v>
       </c>
       <c r="H296" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="I296" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.3">
@@ -11997,7 +12000,7 @@
         <v>301</v>
       </c>
       <c r="E297" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F297" t="s">
         <v>705</v>
@@ -12006,10 +12009,10 @@
         <v>817</v>
       </c>
       <c r="H297" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="I297" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.3">
@@ -12023,7 +12026,7 @@
         <v>302</v>
       </c>
       <c r="E298" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F298" t="s">
         <v>706</v>
@@ -12032,10 +12035,10 @@
         <v>1038</v>
       </c>
       <c r="H298" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="I298" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.3">
@@ -12049,7 +12052,7 @@
         <v>303</v>
       </c>
       <c r="E299" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F299" t="s">
         <v>707</v>
@@ -12058,10 +12061,10 @@
         <v>1039</v>
       </c>
       <c r="H299" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="I299" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.3">
@@ -12075,7 +12078,7 @@
         <v>304</v>
       </c>
       <c r="E300" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F300" t="s">
         <v>708</v>
@@ -12084,10 +12087,10 @@
         <v>862</v>
       </c>
       <c r="H300" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="I300" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.3">
@@ -12101,7 +12104,7 @@
         <v>305</v>
       </c>
       <c r="E301" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F301" t="s">
         <v>709</v>
@@ -12110,10 +12113,10 @@
         <v>1040</v>
       </c>
       <c r="H301" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="I301" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.3">
@@ -12127,7 +12130,7 @@
         <v>306</v>
       </c>
       <c r="E302" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F302" t="s">
         <v>710</v>
@@ -12136,10 +12139,10 @@
         <v>1041</v>
       </c>
       <c r="H302" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="I302" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.3">
@@ -12153,7 +12156,7 @@
         <v>307</v>
       </c>
       <c r="E303" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F303" t="s">
         <v>711</v>
@@ -12162,10 +12165,10 @@
         <v>915</v>
       </c>
       <c r="H303" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="I303" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.3">
@@ -12179,7 +12182,7 @@
         <v>308</v>
       </c>
       <c r="E304" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F304" t="s">
         <v>712</v>
@@ -12188,10 +12191,10 @@
         <v>1042</v>
       </c>
       <c r="H304" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="I304" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.3">
@@ -12205,7 +12208,7 @@
         <v>309</v>
       </c>
       <c r="E305" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F305" t="s">
         <v>713</v>
@@ -12214,10 +12217,10 @@
         <v>929</v>
       </c>
       <c r="H305" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="I305" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.3">
@@ -12231,7 +12234,7 @@
         <v>310</v>
       </c>
       <c r="E306" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F306" t="s">
         <v>714</v>
@@ -12240,10 +12243,10 @@
         <v>861</v>
       </c>
       <c r="H306" t="s">
+        <v>1235</v>
+      </c>
+      <c r="I306" t="s">
         <v>1243</v>
-      </c>
-      <c r="I306" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.3">
@@ -12257,7 +12260,7 @@
         <v>311</v>
       </c>
       <c r="E307" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F307" t="s">
         <v>715</v>
@@ -12266,10 +12269,10 @@
         <v>1043</v>
       </c>
       <c r="H307" t="s">
+        <v>1235</v>
+      </c>
+      <c r="I307" t="s">
         <v>1243</v>
-      </c>
-      <c r="I307" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.3">
@@ -12283,7 +12286,7 @@
         <v>312</v>
       </c>
       <c r="E308" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F308" t="s">
         <v>716</v>
@@ -12292,10 +12295,10 @@
         <v>1044</v>
       </c>
       <c r="H308" t="s">
+        <v>1235</v>
+      </c>
+      <c r="I308" t="s">
         <v>1243</v>
-      </c>
-      <c r="I308" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.3">
@@ -12309,7 +12312,7 @@
         <v>313</v>
       </c>
       <c r="E309" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F309" t="s">
         <v>717</v>
@@ -12318,10 +12321,10 @@
         <v>817</v>
       </c>
       <c r="H309" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="I309" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.3">
@@ -12335,7 +12338,7 @@
         <v>314</v>
       </c>
       <c r="E310" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F310" t="s">
         <v>718</v>
@@ -12344,10 +12347,10 @@
         <v>945</v>
       </c>
       <c r="H310" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="I310" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.3">
@@ -12361,7 +12364,7 @@
         <v>315</v>
       </c>
       <c r="E311" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F311" t="s">
         <v>719</v>
@@ -12370,10 +12373,10 @@
         <v>915</v>
       </c>
       <c r="H311" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="I311" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.3">
@@ -12387,7 +12390,7 @@
         <v>316</v>
       </c>
       <c r="E312" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F312" t="s">
         <v>720</v>
@@ -12396,10 +12399,10 @@
         <v>817</v>
       </c>
       <c r="H312" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="I312" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.3">
@@ -12413,7 +12416,7 @@
         <v>317</v>
       </c>
       <c r="E313" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F313" t="s">
         <v>721</v>
@@ -12422,10 +12425,10 @@
         <v>817</v>
       </c>
       <c r="H313" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="I313" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.3">
@@ -12439,7 +12442,7 @@
         <v>318</v>
       </c>
       <c r="E314" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F314" t="s">
         <v>722</v>
@@ -12448,10 +12451,10 @@
         <v>817</v>
       </c>
       <c r="H314" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="I314" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.3">
@@ -12465,7 +12468,7 @@
         <v>319</v>
       </c>
       <c r="E315" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F315" t="s">
         <v>723</v>
@@ -12474,10 +12477,10 @@
         <v>929</v>
       </c>
       <c r="H315" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="I315" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.3">
@@ -12491,7 +12494,7 @@
         <v>320</v>
       </c>
       <c r="E316" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="F316" t="s">
         <v>724</v>
@@ -12500,10 +12503,10 @@
         <v>861</v>
       </c>
       <c r="H316" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="I316" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.3">
@@ -12517,7 +12520,7 @@
         <v>321</v>
       </c>
       <c r="E317" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F317" t="s">
         <v>725</v>
@@ -12526,10 +12529,10 @@
         <v>1045</v>
       </c>
       <c r="H317" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="I317" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.3">
@@ -12543,7 +12546,7 @@
         <v>322</v>
       </c>
       <c r="E318" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F318" t="s">
         <v>726</v>
@@ -12552,10 +12555,10 @@
         <v>1046</v>
       </c>
       <c r="H318" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="I318" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.3">
@@ -12569,7 +12572,7 @@
         <v>323</v>
       </c>
       <c r="E319" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F319" t="s">
         <v>727</v>
@@ -12578,16 +12581,16 @@
         <v>1047</v>
       </c>
       <c r="H319" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="I319" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="K319" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="L319" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.3">
@@ -12601,7 +12604,7 @@
         <v>324</v>
       </c>
       <c r="E320" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F320" t="s">
         <v>728</v>
@@ -12610,10 +12613,10 @@
         <v>1048</v>
       </c>
       <c r="H320" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="I320" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.3">
@@ -12627,7 +12630,7 @@
         <v>325</v>
       </c>
       <c r="E321" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F321" t="s">
         <v>729</v>
@@ -12636,10 +12639,10 @@
         <v>1049</v>
       </c>
       <c r="H321" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="I321" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.3">
@@ -12653,7 +12656,7 @@
         <v>326</v>
       </c>
       <c r="E322" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F322" t="s">
         <v>730</v>
@@ -12662,10 +12665,10 @@
         <v>1050</v>
       </c>
       <c r="H322" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="I322" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.3">
@@ -12679,7 +12682,7 @@
         <v>327</v>
       </c>
       <c r="E323" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F323" t="s">
         <v>731</v>
@@ -12688,10 +12691,10 @@
         <v>1051</v>
       </c>
       <c r="H323" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="I323" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.3">
@@ -12705,7 +12708,7 @@
         <v>328</v>
       </c>
       <c r="E324" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F324" t="s">
         <v>732</v>
@@ -12714,10 +12717,10 @@
         <v>1052</v>
       </c>
       <c r="H324" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="I324" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.3">
@@ -12731,7 +12734,7 @@
         <v>329</v>
       </c>
       <c r="E325" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F325" t="s">
         <v>733</v>
@@ -12740,10 +12743,10 @@
         <v>1053</v>
       </c>
       <c r="H325" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="I325" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.3">
@@ -12760,7 +12763,7 @@
         <v>330</v>
       </c>
       <c r="E326" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F326" t="s">
         <v>734</v>
@@ -12769,10 +12772,10 @@
         <v>1054</v>
       </c>
       <c r="H326" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="I326" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.3">
@@ -12789,7 +12792,7 @@
         <v>331</v>
       </c>
       <c r="E327" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F327" t="s">
         <v>735</v>
@@ -12798,10 +12801,10 @@
         <v>1055</v>
       </c>
       <c r="H327" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="I327" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.3">
@@ -12818,7 +12821,7 @@
         <v>332</v>
       </c>
       <c r="E328" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F328" t="s">
         <v>736</v>
@@ -12827,10 +12830,10 @@
         <v>1056</v>
       </c>
       <c r="H328" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="I328" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.3">
@@ -12844,7 +12847,7 @@
         <v>333</v>
       </c>
       <c r="E329" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F329" t="s">
         <v>737</v>
@@ -12853,10 +12856,10 @@
         <v>1057</v>
       </c>
       <c r="H329" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="I329" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.3">
@@ -12870,7 +12873,7 @@
         <v>334</v>
       </c>
       <c r="E330" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F330" t="s">
         <v>738</v>
@@ -12879,10 +12882,10 @@
         <v>1058</v>
       </c>
       <c r="H330" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="I330" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.3">
@@ -12896,7 +12899,7 @@
         <v>335</v>
       </c>
       <c r="E331" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F331" t="s">
         <v>739</v>
@@ -12905,16 +12908,16 @@
         <v>1059</v>
       </c>
       <c r="H331" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="I331" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="K331" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="L331" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.3">
@@ -12928,7 +12931,7 @@
         <v>336</v>
       </c>
       <c r="E332" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F332" t="s">
         <v>740</v>
@@ -12937,10 +12940,10 @@
         <v>817</v>
       </c>
       <c r="H332" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="I332" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.3">
@@ -12954,7 +12957,7 @@
         <v>337</v>
       </c>
       <c r="E333" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F333" t="s">
         <v>741</v>
@@ -12963,10 +12966,10 @@
         <v>1060</v>
       </c>
       <c r="H333" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="I333" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.3">
@@ -12980,7 +12983,7 @@
         <v>338</v>
       </c>
       <c r="E334" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F334" t="s">
         <v>742</v>
@@ -12989,10 +12992,10 @@
         <v>1061</v>
       </c>
       <c r="H334" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="I334" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.3">
@@ -13006,7 +13009,7 @@
         <v>339</v>
       </c>
       <c r="E335" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F335" t="s">
         <v>739</v>
@@ -13015,10 +13018,10 @@
         <v>1059</v>
       </c>
       <c r="H335" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="I335" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.3">
@@ -13032,7 +13035,7 @@
         <v>340</v>
       </c>
       <c r="E336" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F336" t="s">
         <v>743</v>
@@ -13041,16 +13044,16 @@
         <v>817</v>
       </c>
       <c r="H336" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="I336" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="K336" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="L336" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.3">
@@ -13064,7 +13067,7 @@
         <v>341</v>
       </c>
       <c r="E337" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F337" t="s">
         <v>744</v>
@@ -13073,10 +13076,10 @@
         <v>915</v>
       </c>
       <c r="H337" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="I337" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.3">
@@ -13090,7 +13093,7 @@
         <v>342</v>
       </c>
       <c r="E338" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F338" t="s">
         <v>745</v>
@@ -13099,10 +13102,10 @@
         <v>915</v>
       </c>
       <c r="H338" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="I338" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.3">
@@ -13116,7 +13119,7 @@
         <v>343</v>
       </c>
       <c r="E339" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F339" t="s">
         <v>746</v>
@@ -13125,13 +13128,13 @@
         <v>822</v>
       </c>
       <c r="H339" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="I339" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="J339" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.3">
@@ -13145,7 +13148,7 @@
         <v>344</v>
       </c>
       <c r="E340" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F340" t="s">
         <v>747</v>
@@ -13154,13 +13157,13 @@
         <v>881</v>
       </c>
       <c r="H340" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="I340" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="J340" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.3">
@@ -13174,7 +13177,7 @@
         <v>345</v>
       </c>
       <c r="E341" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F341" t="s">
         <v>748</v>
@@ -13183,13 +13186,13 @@
         <v>881</v>
       </c>
       <c r="H341" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="I341" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="J341" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.3">
@@ -13203,7 +13206,7 @@
         <v>346</v>
       </c>
       <c r="E342" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F342" t="s">
         <v>749</v>
@@ -13212,13 +13215,13 @@
         <v>1062</v>
       </c>
       <c r="H342" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="I342" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="J342" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.3">
@@ -13232,7 +13235,7 @@
         <v>347</v>
       </c>
       <c r="E343" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F343" t="s">
         <v>750</v>
@@ -13241,10 +13244,10 @@
         <v>1063</v>
       </c>
       <c r="H343" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="I343" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.3">
@@ -13258,7 +13261,7 @@
         <v>348</v>
       </c>
       <c r="E344" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F344" t="s">
         <v>751</v>
@@ -13267,10 +13270,10 @@
         <v>1064</v>
       </c>
       <c r="H344" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="I344" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.3">
@@ -13284,7 +13287,7 @@
         <v>349</v>
       </c>
       <c r="E345" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F345" t="s">
         <v>752</v>
@@ -13293,10 +13296,10 @@
         <v>1053</v>
       </c>
       <c r="H345" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="I345" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.3">
@@ -13310,7 +13313,7 @@
         <v>350</v>
       </c>
       <c r="E346" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F346" t="s">
         <v>753</v>
@@ -13319,10 +13322,10 @@
         <v>1065</v>
       </c>
       <c r="H346" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="I346" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.3">
@@ -13336,7 +13339,7 @@
         <v>351</v>
       </c>
       <c r="E347" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F347" t="s">
         <v>754</v>
@@ -13345,10 +13348,10 @@
         <v>1066</v>
       </c>
       <c r="H347" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="I347" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.3">
@@ -13362,7 +13365,7 @@
         <v>352</v>
       </c>
       <c r="E348" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F348" t="s">
         <v>755</v>
@@ -13371,10 +13374,10 @@
         <v>1067</v>
       </c>
       <c r="H348" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="I348" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.3">
@@ -13388,7 +13391,7 @@
         <v>353</v>
       </c>
       <c r="E349" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F349" t="s">
         <v>756</v>
@@ -13397,10 +13400,10 @@
         <v>1068</v>
       </c>
       <c r="H349" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="I349" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.3">
@@ -13414,7 +13417,7 @@
         <v>354</v>
       </c>
       <c r="E350" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F350" t="s">
         <v>757</v>
@@ -13423,10 +13426,10 @@
         <v>1069</v>
       </c>
       <c r="H350" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="I350" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.3">
@@ -13440,7 +13443,7 @@
         <v>355</v>
       </c>
       <c r="E351" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F351" t="s">
         <v>758</v>
@@ -13449,10 +13452,10 @@
         <v>1070</v>
       </c>
       <c r="H351" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="I351" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.3">
@@ -13466,7 +13469,7 @@
         <v>356</v>
       </c>
       <c r="E352" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F352" t="s">
         <v>759</v>
@@ -13475,10 +13478,10 @@
         <v>915</v>
       </c>
       <c r="H352" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="I352" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.3">
@@ -13492,7 +13495,7 @@
         <v>357</v>
       </c>
       <c r="E353" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F353" t="s">
         <v>760</v>
@@ -13501,10 +13504,10 @@
         <v>817</v>
       </c>
       <c r="H353" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="I353" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.3">
@@ -13518,7 +13521,7 @@
         <v>358</v>
       </c>
       <c r="E354" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F354" t="s">
         <v>761</v>
@@ -13527,10 +13530,10 @@
         <v>915</v>
       </c>
       <c r="H354" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="I354" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.3">
@@ -13544,7 +13547,7 @@
         <v>359</v>
       </c>
       <c r="E355" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F355" t="s">
         <v>762</v>
@@ -13553,10 +13556,10 @@
         <v>817</v>
       </c>
       <c r="H355" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="I355" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.3">
@@ -13570,7 +13573,7 @@
         <v>360</v>
       </c>
       <c r="E356" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F356" t="s">
         <v>763</v>
@@ -13579,10 +13582,10 @@
         <v>817</v>
       </c>
       <c r="H356" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="I356" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.3">
@@ -13599,7 +13602,7 @@
         <v>361</v>
       </c>
       <c r="E357" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F357" t="s">
         <v>764</v>
@@ -13608,10 +13611,10 @@
         <v>1071</v>
       </c>
       <c r="H357" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="I357" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.3">
@@ -13628,7 +13631,7 @@
         <v>362</v>
       </c>
       <c r="E358" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F358" t="s">
         <v>765</v>
@@ -13637,10 +13640,10 @@
         <v>1072</v>
       </c>
       <c r="H358" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="I358" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.3">
@@ -13657,7 +13660,7 @@
         <v>363</v>
       </c>
       <c r="E359" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F359" t="s">
         <v>766</v>
@@ -13666,10 +13669,10 @@
         <v>881</v>
       </c>
       <c r="H359" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="I359" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.3">
@@ -13686,7 +13689,7 @@
         <v>364</v>
       </c>
       <c r="E360" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F360" t="s">
         <v>767</v>
@@ -13695,10 +13698,10 @@
         <v>1073</v>
       </c>
       <c r="H360" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="I360" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.3">
@@ -13715,7 +13718,7 @@
         <v>365</v>
       </c>
       <c r="E361" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F361" t="s">
         <v>768</v>
@@ -13724,10 +13727,10 @@
         <v>1074</v>
       </c>
       <c r="H361" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="I361" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.3">
@@ -13744,7 +13747,7 @@
         <v>366</v>
       </c>
       <c r="E362" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F362" t="s">
         <v>769</v>
@@ -13753,10 +13756,10 @@
         <v>1075</v>
       </c>
       <c r="H362" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="I362" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.3">
@@ -13773,7 +13776,7 @@
         <v>367</v>
       </c>
       <c r="E363" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F363" t="s">
         <v>770</v>
@@ -13782,10 +13785,10 @@
         <v>1059</v>
       </c>
       <c r="H363" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="I363" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.3">
@@ -13802,16 +13805,16 @@
         <v>368</v>
       </c>
       <c r="E364" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F364" t="s">
         <v>771</v>
       </c>
       <c r="H364" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="I364" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.3">
@@ -13828,7 +13831,7 @@
         <v>369</v>
       </c>
       <c r="E365" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F365" t="s">
         <v>772</v>
@@ -13837,10 +13840,10 @@
         <v>1076</v>
       </c>
       <c r="H365" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="I365" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.3">
@@ -13854,7 +13857,7 @@
         <v>370</v>
       </c>
       <c r="E366" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F366" t="s">
         <v>773</v>
@@ -13863,10 +13866,10 @@
         <v>940</v>
       </c>
       <c r="H366" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="I366" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.3">
@@ -13880,7 +13883,7 @@
         <v>371</v>
       </c>
       <c r="E367" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F367" t="s">
         <v>774</v>
@@ -13889,10 +13892,10 @@
         <v>915</v>
       </c>
       <c r="H367" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="I367" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.3">
@@ -13906,7 +13909,7 @@
         <v>372</v>
       </c>
       <c r="E368" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F368" t="s">
         <v>775</v>
@@ -13915,10 +13918,10 @@
         <v>915</v>
       </c>
       <c r="H368" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="I368" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="369" spans="1:9" x14ac:dyDescent="0.3">
@@ -13932,7 +13935,7 @@
         <v>373</v>
       </c>
       <c r="E369" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F369" t="s">
         <v>776</v>
@@ -13941,10 +13944,10 @@
         <v>915</v>
       </c>
       <c r="H369" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="I369" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="370" spans="1:9" x14ac:dyDescent="0.3">
@@ -13958,7 +13961,7 @@
         <v>374</v>
       </c>
       <c r="E370" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F370" t="s">
         <v>777</v>
@@ -13967,10 +13970,10 @@
         <v>1077</v>
       </c>
       <c r="H370" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="I370" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="371" spans="1:9" x14ac:dyDescent="0.3">
@@ -13984,7 +13987,7 @@
         <v>375</v>
       </c>
       <c r="E371" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F371" t="s">
         <v>778</v>
@@ -13993,10 +13996,10 @@
         <v>915</v>
       </c>
       <c r="H371" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="I371" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="372" spans="1:9" x14ac:dyDescent="0.3">
@@ -14010,7 +14013,7 @@
         <v>376</v>
       </c>
       <c r="E372" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F372" t="s">
         <v>779</v>
@@ -14019,10 +14022,10 @@
         <v>817</v>
       </c>
       <c r="H372" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="I372" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="373" spans="1:9" x14ac:dyDescent="0.3">
@@ -14036,7 +14039,7 @@
         <v>377</v>
       </c>
       <c r="E373" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F373" t="s">
         <v>780</v>
@@ -14045,10 +14048,10 @@
         <v>915</v>
       </c>
       <c r="H373" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="I373" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="374" spans="1:9" x14ac:dyDescent="0.3">
@@ -14062,7 +14065,7 @@
         <v>378</v>
       </c>
       <c r="E374" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F374" t="s">
         <v>781</v>
@@ -14074,7 +14077,7 @@
         <v>1113</v>
       </c>
       <c r="I374" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="375" spans="1:9" x14ac:dyDescent="0.3">
@@ -14088,7 +14091,7 @@
         <v>379</v>
       </c>
       <c r="E375" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F375" t="s">
         <v>782</v>
@@ -14100,7 +14103,7 @@
         <v>1113</v>
       </c>
       <c r="I375" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="376" spans="1:9" x14ac:dyDescent="0.3">
@@ -14114,7 +14117,7 @@
         <v>380</v>
       </c>
       <c r="E376" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F376" t="s">
         <v>457</v>
@@ -14126,7 +14129,7 @@
         <v>1113</v>
       </c>
       <c r="I376" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="377" spans="1:9" x14ac:dyDescent="0.3">
@@ -14140,7 +14143,7 @@
         <v>381</v>
       </c>
       <c r="E377" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F377" t="s">
         <v>783</v>
@@ -14152,7 +14155,7 @@
         <v>1113</v>
       </c>
       <c r="I377" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.3">
@@ -14166,7 +14169,7 @@
         <v>382</v>
       </c>
       <c r="E378" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F378" t="s">
         <v>784</v>
@@ -14175,10 +14178,10 @@
         <v>817</v>
       </c>
       <c r="H378" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="I378" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="379" spans="1:9" x14ac:dyDescent="0.3">
@@ -14192,7 +14195,7 @@
         <v>383</v>
       </c>
       <c r="E379" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F379" t="s">
         <v>785</v>
@@ -14201,10 +14204,10 @@
         <v>1078</v>
       </c>
       <c r="H379" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="I379" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="380" spans="1:9" x14ac:dyDescent="0.3">
@@ -14218,7 +14221,7 @@
         <v>384</v>
       </c>
       <c r="E380" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F380" t="s">
         <v>786</v>
@@ -14227,10 +14230,10 @@
         <v>1079</v>
       </c>
       <c r="H380" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="I380" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="381" spans="1:9" x14ac:dyDescent="0.3">
@@ -14244,7 +14247,7 @@
         <v>385</v>
       </c>
       <c r="E381" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F381" t="s">
         <v>787</v>
@@ -14253,10 +14256,10 @@
         <v>1080</v>
       </c>
       <c r="H381" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="I381" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="382" spans="1:9" x14ac:dyDescent="0.3">
@@ -14270,7 +14273,7 @@
         <v>386</v>
       </c>
       <c r="E382" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F382" t="s">
         <v>788</v>
@@ -14279,10 +14282,10 @@
         <v>1081</v>
       </c>
       <c r="H382" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="I382" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="383" spans="1:9" x14ac:dyDescent="0.3">
@@ -14296,7 +14299,7 @@
         <v>387</v>
       </c>
       <c r="E383" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F383" t="s">
         <v>789</v>
@@ -14305,10 +14308,10 @@
         <v>1082</v>
       </c>
       <c r="H383" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="I383" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="384" spans="1:9" x14ac:dyDescent="0.3">
@@ -14322,7 +14325,7 @@
         <v>388</v>
       </c>
       <c r="E384" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F384" t="s">
         <v>790</v>
@@ -14331,10 +14334,10 @@
         <v>1083</v>
       </c>
       <c r="H384" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="I384" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="385" spans="1:14" x14ac:dyDescent="0.3">
@@ -14348,7 +14351,7 @@
         <v>389</v>
       </c>
       <c r="E385" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F385" t="s">
         <v>791</v>
@@ -14357,10 +14360,10 @@
         <v>1084</v>
       </c>
       <c r="H385" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="I385" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="386" spans="1:14" x14ac:dyDescent="0.3">
@@ -14374,7 +14377,7 @@
         <v>390</v>
       </c>
       <c r="E386" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F386" t="s">
         <v>792</v>
@@ -14383,10 +14386,10 @@
         <v>1085</v>
       </c>
       <c r="H386" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="I386" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="387" spans="1:14" x14ac:dyDescent="0.3">
@@ -14400,7 +14403,7 @@
         <v>391</v>
       </c>
       <c r="E387" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F387" t="s">
         <v>793</v>
@@ -14409,10 +14412,10 @@
         <v>1086</v>
       </c>
       <c r="H387" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="I387" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="388" spans="1:14" x14ac:dyDescent="0.3">
@@ -14426,7 +14429,7 @@
         <v>392</v>
       </c>
       <c r="E388" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F388" t="s">
         <v>788</v>
@@ -14435,10 +14438,10 @@
         <v>1087</v>
       </c>
       <c r="H388" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="I388" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="389" spans="1:14" x14ac:dyDescent="0.3">
@@ -14452,7 +14455,7 @@
         <v>393</v>
       </c>
       <c r="E389" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F389" t="s">
         <v>794</v>
@@ -14461,10 +14464,10 @@
         <v>1088</v>
       </c>
       <c r="H389" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="I389" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="390" spans="1:14" x14ac:dyDescent="0.3">
@@ -14478,7 +14481,7 @@
         <v>394</v>
       </c>
       <c r="E390" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F390" t="s">
         <v>795</v>
@@ -14487,10 +14490,10 @@
         <v>929</v>
       </c>
       <c r="H390" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="I390" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="391" spans="1:14" x14ac:dyDescent="0.3">
@@ -14504,7 +14507,7 @@
         <v>395</v>
       </c>
       <c r="E391" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F391" t="s">
         <v>796</v>
@@ -14513,10 +14516,10 @@
         <v>817</v>
       </c>
       <c r="H391" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="I391" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="392" spans="1:14" x14ac:dyDescent="0.3">
@@ -14530,7 +14533,7 @@
         <v>396</v>
       </c>
       <c r="E392" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F392" t="s">
         <v>797</v>
@@ -14539,10 +14542,10 @@
         <v>1089</v>
       </c>
       <c r="H392" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="I392" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="393" spans="1:14" x14ac:dyDescent="0.3">
@@ -14556,7 +14559,7 @@
         <v>397</v>
       </c>
       <c r="E393" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F393" t="s">
         <v>798</v>
@@ -14565,10 +14568,10 @@
         <v>863</v>
       </c>
       <c r="H393" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="I393" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="394" spans="1:14" x14ac:dyDescent="0.3">
@@ -14582,7 +14585,7 @@
         <v>398</v>
       </c>
       <c r="E394" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F394" t="s">
         <v>799</v>
@@ -14591,10 +14594,10 @@
         <v>1090</v>
       </c>
       <c r="H394" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="I394" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="395" spans="1:14" x14ac:dyDescent="0.3">
@@ -14608,7 +14611,7 @@
         <v>399</v>
       </c>
       <c r="E395" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F395" t="s">
         <v>800</v>
@@ -14617,22 +14620,22 @@
         <v>1091</v>
       </c>
       <c r="H395" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="I395" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="K395" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="L395" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="M395" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
       <c r="N395" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="396" spans="1:14" x14ac:dyDescent="0.3">
@@ -14646,7 +14649,7 @@
         <v>400</v>
       </c>
       <c r="E396" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F396" t="s">
         <v>801</v>
@@ -14655,10 +14658,10 @@
         <v>1092</v>
       </c>
       <c r="H396" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="I396" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="397" spans="1:14" x14ac:dyDescent="0.3">
@@ -14672,7 +14675,7 @@
         <v>401</v>
       </c>
       <c r="E397" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F397" t="s">
         <v>802</v>
@@ -14681,10 +14684,10 @@
         <v>1093</v>
       </c>
       <c r="H397" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="I397" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="398" spans="1:14" x14ac:dyDescent="0.3">
@@ -14698,7 +14701,7 @@
         <v>402</v>
       </c>
       <c r="E398" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F398" t="s">
         <v>803</v>
@@ -14707,10 +14710,10 @@
         <v>1094</v>
       </c>
       <c r="H398" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="I398" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="399" spans="1:14" x14ac:dyDescent="0.3">
@@ -14724,7 +14727,7 @@
         <v>403</v>
       </c>
       <c r="E399" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F399" t="s">
         <v>804</v>
@@ -14733,10 +14736,10 @@
         <v>915</v>
       </c>
       <c r="H399" t="s">
-        <v>1206</v>
+        <v>1263</v>
       </c>
       <c r="I399" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="400" spans="1:14" x14ac:dyDescent="0.3">
@@ -14750,7 +14753,7 @@
         <v>404</v>
       </c>
       <c r="E400" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F400" t="s">
         <v>805</v>
@@ -14759,10 +14762,10 @@
         <v>1095</v>
       </c>
       <c r="H400" t="s">
-        <v>1206</v>
+        <v>1263</v>
       </c>
       <c r="I400" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.3">
@@ -14776,7 +14779,7 @@
         <v>405</v>
       </c>
       <c r="E401" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F401" t="s">
         <v>806</v>
@@ -14785,10 +14788,10 @@
         <v>817</v>
       </c>
       <c r="H401" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="I401" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.3">
@@ -14802,7 +14805,7 @@
         <v>406</v>
       </c>
       <c r="E402" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F402" t="s">
         <v>807</v>
@@ -14811,10 +14814,10 @@
         <v>817</v>
       </c>
       <c r="H402" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="I402" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.3">
@@ -14828,7 +14831,7 @@
         <v>407</v>
       </c>
       <c r="E403" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F403" t="s">
         <v>808</v>
@@ -14837,10 +14840,10 @@
         <v>1096</v>
       </c>
       <c r="H403" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="I403" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.3">
@@ -14854,7 +14857,7 @@
         <v>408</v>
       </c>
       <c r="E404" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F404" t="s">
         <v>809</v>
@@ -14863,10 +14866,10 @@
         <v>1072</v>
       </c>
       <c r="H404" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="I404" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.3">
@@ -14880,7 +14883,7 @@
         <v>409</v>
       </c>
       <c r="E405" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F405" t="s">
         <v>810</v>
@@ -14889,10 +14892,10 @@
         <v>1097</v>
       </c>
       <c r="H405" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="I405" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.3">
@@ -14906,7 +14909,7 @@
         <v>410</v>
       </c>
       <c r="E406" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F406" t="s">
         <v>811</v>
@@ -14915,10 +14918,10 @@
         <v>1098</v>
       </c>
       <c r="H406" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="I406" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.3">
@@ -14932,7 +14935,7 @@
         <v>411</v>
       </c>
       <c r="E407" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F407" t="s">
         <v>812</v>
@@ -14941,10 +14944,10 @@
         <v>1099</v>
       </c>
       <c r="H407" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="I407" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
     </row>
   </sheetData>
